--- a/src/utils/sxsyzlzq/friends/qie/zz_qe_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/qie/zz_qe_level.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21210" windowHeight="9990" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="13395" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="萨维丽娅" sheetId="1" r:id="rId1"/>
-    <sheet name="亚芬戴克斯" sheetId="2" r:id="rId2"/>
-    <sheet name="莎尔玛" sheetId="10" r:id="rId3"/>
-    <sheet name="熙" sheetId="3" r:id="rId4"/>
-    <sheet name="瓦斯兰" sheetId="4" r:id="rId5"/>
+    <sheet name="亚芬戴克斯" sheetId="2" r:id="rId1"/>
+    <sheet name="萨维丽娅" sheetId="1" r:id="rId2"/>
+    <sheet name="熙" sheetId="3" r:id="rId3"/>
+    <sheet name="瓦斯兰" sheetId="4" r:id="rId4"/>
+    <sheet name="莎尔玛" sheetId="10" r:id="rId5"/>
     <sheet name="炼狱" sheetId="8" r:id="rId6"/>
     <sheet name="禅意" sheetId="9" r:id="rId7"/>
     <sheet name="港口" sheetId="6" r:id="rId8"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="91">
   <si>
     <t>名称</t>
   </si>
@@ -58,204 +58,204 @@
     <t>心灵黑洞</t>
   </si>
   <si>
+    <t>狡诈学徒</t>
+  </si>
+  <si>
     <t>黑夜突袭</t>
   </si>
   <si>
-    <t>狡诈学徒</t>
+    <t>圣殿卫士</t>
   </si>
   <si>
     <t>酗酒醉汉</t>
   </si>
   <si>
+    <t>不法交易</t>
+  </si>
+  <si>
+    <t>热血矿工</t>
+  </si>
+  <si>
+    <t>光明惩戒</t>
+  </si>
+  <si>
+    <t>小计：</t>
+  </si>
+  <si>
+    <t>蓝色卡等：</t>
+  </si>
+  <si>
+    <t>四芒军旗</t>
+  </si>
+  <si>
+    <t>紫色</t>
+  </si>
+  <si>
+    <t>海燕精卫</t>
+  </si>
+  <si>
+    <t>圣殿御卫</t>
+  </si>
+  <si>
+    <t>黑水伏击</t>
+  </si>
+  <si>
+    <t>白袍主教</t>
+  </si>
+  <si>
+    <t>圣殿骑士</t>
+  </si>
+  <si>
+    <t>寒夜灯灵</t>
+  </si>
+  <si>
+    <t>黑金诈术师</t>
+  </si>
+  <si>
+    <t>阳炎坠落</t>
+  </si>
+  <si>
+    <t>星辰陨落</t>
+  </si>
+  <si>
+    <t>禁卫百夫长</t>
+  </si>
+  <si>
+    <t>紫色卡等：</t>
+  </si>
+  <si>
+    <t>蒙面侠客·翔</t>
+  </si>
+  <si>
+    <t>橙色</t>
+  </si>
+  <si>
+    <t>夏日女郎·鲍莉</t>
+  </si>
+  <si>
+    <t>花光春影·安娜贝尔</t>
+  </si>
+  <si>
+    <t>春花使者·卡洛琳</t>
+  </si>
+  <si>
+    <t>樱花·艾希尔</t>
+  </si>
+  <si>
+    <t>明日香·露娜</t>
+  </si>
+  <si>
+    <t>永恒之王·莱哈特</t>
+  </si>
+  <si>
+    <t>天雷降临·布瑞恩</t>
+  </si>
+  <si>
+    <t>武圣·云长</t>
+  </si>
+  <si>
+    <t>橙色卡等：</t>
+  </si>
+  <si>
+    <t>总计：</t>
+  </si>
+  <si>
     <t>圣殿弩手</t>
   </si>
   <si>
     <t>增援战线</t>
   </si>
   <si>
-    <t>不法交易</t>
-  </si>
-  <si>
-    <t>光明惩戒</t>
-  </si>
-  <si>
-    <t>小计：</t>
-  </si>
-  <si>
-    <t>蓝色卡等：</t>
-  </si>
-  <si>
-    <t>四芒军旗</t>
-  </si>
-  <si>
-    <t>紫色</t>
-  </si>
-  <si>
     <t>传记·钢铁守卫</t>
   </si>
   <si>
-    <t>海燕精卫</t>
-  </si>
-  <si>
-    <t>圣殿御卫</t>
-  </si>
-  <si>
-    <t>黑水伏击</t>
-  </si>
-  <si>
-    <t>白袍主教</t>
-  </si>
-  <si>
-    <t>圣殿骑士</t>
-  </si>
-  <si>
-    <t>黑金诈术师</t>
-  </si>
-  <si>
     <t>召集护卫</t>
   </si>
   <si>
-    <t>阳炎坠落</t>
-  </si>
-  <si>
-    <t>禁卫百夫长</t>
-  </si>
-  <si>
-    <t>紫色卡等：</t>
-  </si>
-  <si>
-    <t>蒙面侠客·翔</t>
-  </si>
-  <si>
-    <t>橙色</t>
-  </si>
-  <si>
-    <t>夏日女郎·鲍莉</t>
-  </si>
-  <si>
-    <t>花光春影·安娜贝尔</t>
-  </si>
-  <si>
-    <t>春花使者·卡洛琳</t>
-  </si>
-  <si>
-    <t>樱花·艾希尔</t>
-  </si>
-  <si>
-    <t>明日香·露娜</t>
-  </si>
-  <si>
-    <t>永恒之王·莱哈特</t>
-  </si>
-  <si>
     <t>白袍·伊恩</t>
   </si>
   <si>
-    <t>武圣·云长</t>
-  </si>
-  <si>
-    <t>橙色卡等：</t>
-  </si>
-  <si>
-    <t>总计：</t>
-  </si>
-  <si>
-    <t>圣殿卫士</t>
-  </si>
-  <si>
-    <t>热血矿工</t>
-  </si>
-  <si>
-    <t>寒夜灯灵</t>
-  </si>
-  <si>
-    <t>天雷降临·布瑞恩</t>
-  </si>
-  <si>
     <t>冥河守卫</t>
   </si>
   <si>
+    <t>箭竹守卫</t>
+  </si>
+  <si>
+    <t>卜命道长</t>
+  </si>
+  <si>
     <t>落雷击</t>
   </si>
   <si>
+    <t>白羊药师</t>
+  </si>
+  <si>
+    <t>树木之怒</t>
+  </si>
+  <si>
+    <t>无面狂奔者</t>
+  </si>
+  <si>
+    <t>猩红勇士</t>
+  </si>
+  <si>
+    <t>疾风猎手</t>
+  </si>
+  <si>
     <t>烈焰风暴</t>
   </si>
   <si>
+    <t>风铃道人</t>
+  </si>
+  <si>
     <t>碎颅魔</t>
   </si>
   <si>
     <t>觅食大嘴兽</t>
   </si>
   <si>
+    <t>绝望镰魔</t>
+  </si>
+  <si>
+    <t>逍遥琴师</t>
+  </si>
+  <si>
+    <t>扫叶僧</t>
+  </si>
+  <si>
+    <t>岩浆球</t>
+  </si>
+  <si>
+    <t>灼神双炎</t>
+  </si>
+  <si>
+    <t>御风武者</t>
+  </si>
+  <si>
+    <t>疾风传说</t>
+  </si>
+  <si>
+    <t>雷光炼狱</t>
+  </si>
+  <si>
+    <t>恶灵魔焰</t>
+  </si>
+  <si>
+    <t>九天玄女·轩</t>
+  </si>
+  <si>
+    <t>熔金饕餮兽</t>
+  </si>
+  <si>
+    <t>猩红女妖·莉莉丝</t>
+  </si>
+  <si>
     <t>红海猎魔人</t>
   </si>
   <si>
-    <t>绝望镰魔</t>
-  </si>
-  <si>
-    <t>岩浆球</t>
-  </si>
-  <si>
-    <t>灼神双炎</t>
-  </si>
-  <si>
-    <t>雷光炼狱</t>
-  </si>
-  <si>
-    <t>星辰陨落</t>
-  </si>
-  <si>
-    <t>恶灵魔焰</t>
-  </si>
-  <si>
     <t>恶魔之心</t>
   </si>
   <si>
-    <t>熔金饕餮兽</t>
-  </si>
-  <si>
-    <t>猩红女妖·莉莉丝</t>
-  </si>
-  <si>
-    <t>箭竹守卫</t>
-  </si>
-  <si>
-    <t>卜命道长</t>
-  </si>
-  <si>
-    <t>树木之怒</t>
-  </si>
-  <si>
-    <t>白羊药师</t>
-  </si>
-  <si>
-    <t>无面狂奔者</t>
-  </si>
-  <si>
-    <t>猩红勇士</t>
-  </si>
-  <si>
-    <t>疾风猎手</t>
-  </si>
-  <si>
-    <t>风铃道人</t>
-  </si>
-  <si>
-    <t>逍遥琴师</t>
-  </si>
-  <si>
-    <t>扫叶僧</t>
-  </si>
-  <si>
-    <t>御风武者</t>
-  </si>
-  <si>
-    <t>疾风传说</t>
-  </si>
-  <si>
-    <t>九天玄女·轩</t>
-  </si>
-  <si>
     <t>痛苦之心</t>
   </si>
   <si>
@@ -265,43 +265,49 @@
     <t>血翼·莉莉丝</t>
   </si>
   <si>
+    <t>炼狱卡等：</t>
+  </si>
+  <si>
+    <t>神机玄女·轩</t>
+  </si>
+  <si>
+    <t>禅意卡等：</t>
+  </si>
+  <si>
+    <t>花剑绅士·翔</t>
+  </si>
+  <si>
+    <t>海燕·鲍莉</t>
+  </si>
+  <si>
+    <t>赤影·艾希尔</t>
+  </si>
+  <si>
+    <t>钢之咆哮·布瑞恩</t>
+  </si>
+  <si>
+    <t>港口卡等：</t>
+  </si>
+  <si>
+    <t>曙光·安娜贝尔</t>
+  </si>
+  <si>
+    <t>圣枪·卡洛琳</t>
+  </si>
+  <si>
+    <t>明日之音·露娜</t>
+  </si>
+  <si>
+    <t>帝国军魂·莱哈特</t>
+  </si>
+  <si>
+    <t>正阳大主教·伊恩</t>
+  </si>
+  <si>
+    <t>钢铁统帅·雷蒙德</t>
+  </si>
+  <si>
     <t>帝国卡等：</t>
-  </si>
-  <si>
-    <t>神机玄女·轩</t>
-  </si>
-  <si>
-    <t>花剑绅士·翔</t>
-  </si>
-  <si>
-    <t>海燕·鲍莉</t>
-  </si>
-  <si>
-    <t>赤影·艾希尔</t>
-  </si>
-  <si>
-    <t>钢之咆哮·布瑞恩</t>
-  </si>
-  <si>
-    <t>港口卡等：</t>
-  </si>
-  <si>
-    <t>曙光·安娜贝尔</t>
-  </si>
-  <si>
-    <t>圣枪·卡洛琳</t>
-  </si>
-  <si>
-    <t>明日之音·露娜</t>
-  </si>
-  <si>
-    <t>帝国军魂·莱哈特</t>
-  </si>
-  <si>
-    <t>正阳大主教·伊恩</t>
-  </si>
-  <si>
-    <t>钢铁统帅·雷蒙德</t>
   </si>
 </sst>
 </file>
@@ -1277,8 +1283,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1312,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1340,7 +1346,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1368,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1379,10 +1385,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1396,7 +1402,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1424,7 +1430,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1463,7 +1469,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1">
         <f>AVERAGE(D2:D11)</f>
-        <v>16.7</v>
+        <v>17.1</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1488,10 +1494,10 @@
         <v>17</v>
       </c>
       <c r="C18" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="2">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1505,7 +1511,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1516,10 +1522,10 @@
         <v>17</v>
       </c>
       <c r="C20" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1533,7 +1539,7 @@
         <v>3</v>
       </c>
       <c r="D21" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1561,7 +1567,7 @@
         <v>3</v>
       </c>
       <c r="D23" s="2">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1575,10 +1581,10 @@
         <v>4</v>
       </c>
       <c r="D24" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
@@ -1589,8 +1595,9 @@
         <v>4</v>
       </c>
       <c r="D25" s="2">
-        <v>14</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
@@ -1600,10 +1607,10 @@
         <v>17</v>
       </c>
       <c r="C26" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" s="2">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F26" s="5"/>
     </row>
@@ -1618,7 +1625,7 @@
         <v>5</v>
       </c>
       <c r="D27" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F27" s="5"/>
     </row>
@@ -1644,7 +1651,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2">
         <f>AVERAGE(D17:D27)</f>
-        <v>16.4545454545455</v>
+        <v>17.3636363636364</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1672,7 +1679,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1753,10 +1760,10 @@
         <v>30</v>
       </c>
       <c r="C40" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D40" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1795,7 +1802,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D33:D41)</f>
-        <v>14.8888888888889</v>
+        <v>15.2222222222222</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1806,7 +1813,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D11,D17:D27,D33:D41)</f>
-        <v>16.0666666666667</v>
+        <v>16.6333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -1819,10 +1826,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1856,7 +1863,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1884,7 +1891,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1912,26 +1919,26 @@
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -1940,12 +1947,12 @@
         <v>3</v>
       </c>
       <c r="D8" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -1954,36 +1961,28 @@
         <v>3</v>
       </c>
       <c r="D9" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" s="1">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1">
-        <v>14</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
@@ -1992,27 +1991,35 @@
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="D13" s="1">
+        <f>AVERAGE(D2:D10)</f>
+        <v>17.5555555555556</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
         <v>15</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1">
-        <f>AVERAGE(D2:D11)</f>
-        <v>16.3</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>17</v>
@@ -2026,7 +2033,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>17</v>
@@ -2040,7 +2047,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>17</v>
@@ -2054,7 +2061,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>17</v>
@@ -2068,7 +2075,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>17</v>
@@ -2077,12 +2084,12 @@
         <v>3</v>
       </c>
       <c r="D21" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>17</v>
@@ -2091,26 +2098,26 @@
         <v>3</v>
       </c>
       <c r="D22" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" s="2">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>17</v>
@@ -2119,12 +2126,12 @@
         <v>4</v>
       </c>
       <c r="D24" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>17</v>
@@ -2133,7 +2140,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F25" s="5"/>
     </row>
@@ -2148,7 +2155,7 @@
         <v>5</v>
       </c>
       <c r="D26" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F26" s="5"/>
     </row>
@@ -2173,8 +2180,8 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2">
-        <f>AVERAGE(D17:D26)</f>
-        <v>16.6</v>
+        <f>AVERAGE(D16:D26)</f>
+        <v>17.0909090909091</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2202,7 +2209,7 @@
         <v>3</v>
       </c>
       <c r="D33" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2277,7 +2284,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>30</v>
@@ -2286,28 +2293,36 @@
         <v>5</v>
       </c>
       <c r="D39" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C40" s="3">
+        <v>6</v>
+      </c>
+      <c r="D40" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="3">
         <v>8</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D41" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="3"/>
@@ -2316,27 +2331,33 @@
       <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B44" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3">
-        <f>AVERAGE(D32:D40)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="4" t="s">
+      <c r="C44" s="3"/>
+      <c r="D44" s="3">
+        <f>AVERAGE(D32:D41)</f>
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4">
-        <f>AVERAGE(D2:D11,D17:D26,D32:D40)</f>
-        <v>16</v>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4">
+        <f>AVERAGE(D2:D10,D16:D26,D32:D41)</f>
+        <v>16.6</v>
       </c>
     </row>
   </sheetData>
@@ -2351,8 +2372,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2377,7 +2398,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -2391,7 +2412,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -2405,7 +2426,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -2414,12 +2435,12 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -2428,12 +2449,12 @@
         <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -2442,26 +2463,26 @@
         <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -2475,152 +2496,150 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1">
-        <f>AVERAGE(D2:D11)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1"/>
-    <row r="16" customFormat="1"/>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="2">
-        <v>2</v>
-      </c>
-      <c r="D17" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="2">
-        <v>2</v>
-      </c>
-      <c r="D18" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="2">
-        <v>2</v>
-      </c>
-      <c r="D19" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="2">
-        <v>2</v>
-      </c>
-      <c r="D20" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="2">
-        <v>3</v>
-      </c>
-      <c r="D21" s="2">
-        <v>20</v>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1">
+        <f>AVERAGE(D2:D16)</f>
+        <v>19.3333333333333</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" s="2">
         <v>20</v>
@@ -2628,21 +2647,21 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>17</v>
@@ -2651,180 +2670,178 @@
         <v>3</v>
       </c>
       <c r="D24" s="2">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C25" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C27" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" s="2">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C29" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D29" s="2">
-        <v>17</v>
-      </c>
-      <c r="F29" s="5"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="A30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="2">
+        <v>4</v>
+      </c>
+      <c r="D30" s="2">
+        <v>18</v>
+      </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+      <c r="A31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="2">
+        <v>4</v>
+      </c>
+      <c r="D31" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="2">
+        <v>5</v>
+      </c>
+      <c r="D32" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="2">
+        <v>6</v>
+      </c>
+      <c r="D33" s="2">
+        <v>18</v>
+      </c>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2">
-        <f>AVERAGE(D17:D29)</f>
-        <v>18.4615384615385</v>
-      </c>
-    </row>
-    <row r="33" customFormat="1"/>
-    <row r="34" customFormat="1"/>
-    <row r="35" spans="1:4">
-      <c r="A35" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="3">
-        <v>2</v>
-      </c>
-      <c r="D35" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="3">
-        <v>2</v>
-      </c>
-      <c r="D36" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37" s="3">
-        <v>3</v>
-      </c>
-      <c r="D37" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" s="3">
-        <v>4</v>
-      </c>
-      <c r="D38" s="3">
-        <v>15</v>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2">
+        <f>AVERAGE(D22:D33)</f>
+        <v>18.1666666666667</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C39" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" s="3">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>30</v>
@@ -2833,12 +2850,12 @@
         <v>5</v>
       </c>
       <c r="D40" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>30</v>
@@ -2871,12 +2888,10 @@
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
-        <f>AVERAGE(D35:D41)</f>
-        <v>15.4285714285714</v>
-      </c>
-    </row>
-    <row r="45" customFormat="1"/>
-    <row r="46" customFormat="1"/>
+        <f>AVERAGE(D39:D41)</f>
+        <v>16.3333333333333</v>
+      </c>
+    </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
         <v>40</v>
@@ -2884,12 +2899,13 @@
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
-        <f>AVERAGE(D2:D11,D17:D29,D35:D41)</f>
-        <v>17.6</v>
+        <f>AVERAGE(D2:D16,D22:D33,D39:D41)</f>
+        <v>18.5666666666667</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2899,8 +2915,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2925,7 +2941,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -2939,7 +2955,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -2953,7 +2969,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -2962,12 +2978,12 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -2976,18 +2992,18 @@
         <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1">
         <v>20</v>
@@ -2995,178 +3011,178 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1">
-        <v>3</v>
-      </c>
-      <c r="D12" s="1">
-        <v>20</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1">
-        <v>3</v>
-      </c>
-      <c r="D13" s="1">
-        <v>18</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="1">
-        <v>3</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C14" s="1"/>
       <c r="D14" s="1">
+        <f>AVERAGE(D2:D11)</f>
+        <v>18.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="1">
-        <v>4</v>
-      </c>
-      <c r="D15" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="1">
-        <v>4</v>
-      </c>
-      <c r="D16" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1">
-        <f>AVERAGE(D2:D16)</f>
-        <v>19</v>
+      <c r="B19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="2">
+        <v>3</v>
+      </c>
+      <c r="D21" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" s="2">
         <v>20</v>
@@ -3174,21 +3190,21 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>17</v>
@@ -3197,178 +3213,178 @@
         <v>3</v>
       </c>
       <c r="D24" s="2">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C25" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C27" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" s="2">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C29" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D29" s="2">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F29" s="5"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="2">
-        <v>4</v>
-      </c>
-      <c r="D30" s="2">
-        <v>17</v>
-      </c>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="2">
-        <v>4</v>
-      </c>
-      <c r="D31" s="2">
-        <v>14</v>
-      </c>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="2">
-        <v>5</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C32" s="2"/>
       <c r="D32" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="2">
-        <v>6</v>
-      </c>
-      <c r="D33" s="2">
-        <v>17</v>
-      </c>
-      <c r="F33" s="5"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
+        <f>AVERAGE(D17:D29)</f>
+        <v>18.8461538461538</v>
+      </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+      <c r="A35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="3">
+        <v>2</v>
+      </c>
+      <c r="D35" s="3">
+        <v>17</v>
+      </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2">
-        <f>AVERAGE(D22:D33)</f>
-        <v>17.75</v>
+      <c r="A36" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="3">
+        <v>2</v>
+      </c>
+      <c r="D36" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="3">
+        <v>3</v>
+      </c>
+      <c r="D37" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="3">
+        <v>4</v>
+      </c>
+      <c r="D38" s="3">
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C39" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" s="3">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>30</v>
@@ -3377,12 +3393,12 @@
         <v>5</v>
       </c>
       <c r="D40" s="3">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>30</v>
@@ -3415,8 +3431,8 @@
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
-        <f>AVERAGE(D39:D41)</f>
-        <v>16.3333333333333</v>
+        <f>AVERAGE(D35:D41)</f>
+        <v>15.7142857142857</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3426,13 +3442,12 @@
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
-        <f>AVERAGE(D2:D16,D22:D33,D39:D41)</f>
-        <v>18.2333333333333</v>
+        <f>AVERAGE(D2:D11,D17:D29,D35:D41)</f>
+        <v>18.1333333333333</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -3442,8 +3457,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C49" sqref="$A1:$XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3468,7 +3483,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -3482,7 +3497,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -3496,7 +3511,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -3505,7 +3520,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3524,21 +3539,21 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -3547,18 +3562,18 @@
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1">
         <v>20</v>
@@ -3566,7 +3581,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -3575,12 +3590,12 @@
         <v>3</v>
       </c>
       <c r="D9" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -3589,12 +3604,12 @@
         <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
@@ -3628,12 +3643,12 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1">
         <f>AVERAGE(D2:D11)</f>
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>17</v>
@@ -3647,7 +3662,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>17</v>
@@ -3661,7 +3676,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>17</v>
@@ -3675,7 +3690,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>17</v>
@@ -3684,12 +3699,12 @@
         <v>2</v>
       </c>
       <c r="D20" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>17</v>
@@ -3703,7 +3718,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>17</v>
@@ -3717,7 +3732,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>17</v>
@@ -3726,12 +3741,12 @@
         <v>3</v>
       </c>
       <c r="D23" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>17</v>
@@ -3745,7 +3760,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>17</v>
@@ -3768,12 +3783,12 @@
         <v>4</v>
       </c>
       <c r="D26" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>17</v>
@@ -3787,7 +3802,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>17</v>
@@ -3801,7 +3816,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>17</v>
@@ -3810,7 +3825,7 @@
         <v>6</v>
       </c>
       <c r="D29" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F29" s="5"/>
     </row>
@@ -3836,7 +3851,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2">
         <f>AVERAGE(D17:D29)</f>
-        <v>18.4615384615385</v>
+        <v>18.8461538461538</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3855,7 +3870,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>30</v>
@@ -3878,7 +3893,7 @@
         <v>3</v>
       </c>
       <c r="D37" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3897,7 +3912,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>30</v>
@@ -3911,7 +3926,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>30</v>
@@ -3920,12 +3935,12 @@
         <v>5</v>
       </c>
       <c r="D40" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>30</v>
@@ -3959,7 +3974,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D35:D41)</f>
-        <v>15.4285714285714</v>
+        <v>15.7142857142857</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3970,7 +3985,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D11,D17:D29,D35:D41)</f>
-        <v>17.7666666666667</v>
+        <v>17.9666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -3982,10 +3997,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4008,7 +4023,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -4019,7 +4034,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -4030,76 +4045,74 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="1">
         <v>4</v>
       </c>
-      <c r="C6" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1">
-        <f>AVERAGE(C2:C6)</f>
-        <v>19.6</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" customFormat="1"/>
-    <row r="11" customFormat="1"/>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2">
-        <v>20</v>
-      </c>
+      <c r="C10" s="1">
+        <f>AVERAGE(C2:C7)</f>
+        <v>19.6666666666667</v>
+      </c>
+      <c r="D10" s="2"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B13" s="2">
         <v>2</v>
@@ -4110,10 +4123,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B14" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="2">
         <v>20</v>
@@ -4121,32 +4134,32 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B15" s="2">
         <v>3</v>
       </c>
       <c r="C15" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B16" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B17" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" s="2">
         <v>20</v>
@@ -4154,19 +4167,25 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B18" s="2">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="2">
         <v>6</v>
       </c>
-      <c r="C18" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2">
+        <v>18</v>
+      </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2"/>
@@ -4174,56 +4193,54 @@
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="2">
-        <f>AVERAGE(C12:C18)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1"/>
-    <row r="23" customFormat="1"/>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="3">
-        <v>2</v>
-      </c>
-      <c r="C24" s="3">
-        <v>10</v>
+      <c r="C22" s="2">
+        <f>AVERAGE(C13:C19)</f>
+        <v>19.2857142857143</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B25" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C25" s="3">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="3">
+        <v>5</v>
+      </c>
+      <c r="C26" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B27" s="3">
         <v>6</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C27" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3"/>
@@ -4231,29 +4248,32 @@
       <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="3">
-        <f>AVERAGE(C24:C26)</f>
+      <c r="C30" s="3">
+        <f>AVERAGE(C25:C27)</f>
         <v>14.3333333333333</v>
       </c>
     </row>
-    <row r="30" customFormat="1"/>
-    <row r="31" customFormat="1"/>
-    <row r="32" spans="1:3">
-      <c r="A32" s="4" t="s">
+    <row r="33" spans="1:3">
+      <c r="A33" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="4">
-        <f>AVERAGE(C2:C6,C12:C18,C24:C26)</f>
-        <v>18.2666666666667</v>
+      <c r="C33" s="4">
+        <f>AVERAGE(C2:C7,C13:C19,C25:C27)</f>
+        <v>18.5</v>
       </c>
     </row>
   </sheetData>
@@ -4268,7 +4288,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4291,7 +4311,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -4302,7 +4322,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -4313,7 +4333,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -4324,7 +4344,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -4335,7 +4355,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
@@ -4346,18 +4366,18 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B7" s="1">
         <v>2</v>
       </c>
       <c r="C7" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B8" s="1">
         <v>2</v>
@@ -4368,24 +4388,24 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B9" s="1">
         <v>3</v>
       </c>
       <c r="C9" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B10" s="1">
         <v>4</v>
       </c>
       <c r="C10" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4407,15 +4427,13 @@
       </c>
       <c r="C13" s="1">
         <f>AVERAGE(C2:C10)</f>
-        <v>18.7777777777778</v>
+        <v>19.1111111111111</v>
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" customFormat="1"/>
-    <row r="15" customFormat="1"/>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
@@ -4426,18 +4444,18 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
       </c>
       <c r="C17" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B18" s="2">
         <v>3</v>
@@ -4448,24 +4466,24 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B19" s="2">
         <v>4</v>
       </c>
       <c r="C19" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B20" s="2">
         <v>4</v>
       </c>
       <c r="C20" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4487,11 +4505,9 @@
       </c>
       <c r="C23" s="2">
         <f>AVERAGE(C16:C20)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1"/>
-    <row r="25" customFormat="1"/>
+        <v>16.6</v>
+      </c>
+    </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
         <v>77</v>
@@ -4525,18 +4541,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" customFormat="1"/>
-    <row r="31" customFormat="1"/>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C10,C16:C20,C26:C26)</f>
-        <v>17.6666666666667</v>
+        <v>18.0666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -4551,7 +4565,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P46" sqref="P46"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4591,7 +4605,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4613,12 +4627,12 @@
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -4629,24 +4643,24 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4668,13 +4682,13 @@
       </c>
       <c r="C11" s="1">
         <f>AVERAGE(C2:C8)</f>
-        <v>16.5714285714286</v>
+        <v>17.1428571428571</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
@@ -4685,18 +4699,18 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
       </c>
       <c r="C15" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
@@ -4707,7 +4721,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
@@ -4724,12 +4738,12 @@
         <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2">
         <v>5</v>
@@ -4757,12 +4771,12 @@
       </c>
       <c r="C22" s="2">
         <f>AVERAGE(C14:C19)</f>
-        <v>17.8333333333333</v>
+        <v>18.3333333333333</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B25" s="3">
         <v>2</v>
@@ -4773,18 +4787,18 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B26" s="3">
         <v>3</v>
       </c>
       <c r="C26" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B27" s="3">
         <v>4</v>
@@ -4795,13 +4809,13 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B28" s="3">
         <v>5</v>
       </c>
       <c r="C28" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -4823,7 +4837,7 @@
       </c>
       <c r="C31" s="3">
         <f>AVERAGE(C25:C28)</f>
-        <v>16.25</v>
+        <v>16.75</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -4831,11 +4845,11 @@
         <v>40</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C34" s="4">
         <f>AVERAGE(C2:C8,C14:C19,C25:C28)</f>
-        <v>16.9411764705882</v>
+        <v>17.4705882352941</v>
       </c>
     </row>
   </sheetData>
@@ -4850,7 +4864,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U32" sqref="U32"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4879,23 +4893,23 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -4906,13 +4920,13 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4945,7 +4959,7 @@
       </c>
       <c r="C9" s="1">
         <f>AVERAGE(C2:C6)</f>
-        <v>16.6</v>
+        <v>17.8</v>
       </c>
       <c r="D9" s="2"/>
     </row>
@@ -4962,18 +4976,18 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
       </c>
       <c r="C13" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
@@ -4984,46 +4998,46 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2">
         <v>3</v>
       </c>
       <c r="C15" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
       </c>
       <c r="C16" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -5034,7 +5048,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -5056,12 +5070,12 @@
       </c>
       <c r="C22" s="2">
         <f>AVERAGE(C12:C19)</f>
-        <v>15.625</v>
+        <v>16.375</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B25" s="3">
         <v>3</v>
@@ -5072,7 +5086,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B26" s="3">
         <v>4</v>
@@ -5083,7 +5097,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B27" s="3">
         <v>4</v>
@@ -5094,7 +5108,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B28" s="3">
         <v>5</v>
@@ -5105,18 +5119,18 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B29" s="3">
         <v>6</v>
       </c>
       <c r="C29" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B30" s="3">
         <v>8</v>
@@ -5144,7 +5158,7 @@
       </c>
       <c r="C33" s="3">
         <f>AVERAGE(C25:C30)</f>
-        <v>14</v>
+        <v>14.1666666666667</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -5152,18 +5166,18 @@
         <v>40</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C36" s="4">
         <f>AVERAGE(C2:C6,C12:C19,C25:C30)</f>
-        <v>15.3684210526316</v>
+        <v>16.0526315789474</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C9 C36" formulaRange="1"/>
+    <ignoredError sqref="C36 C9" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/utils/sxsyzlzq/friends/qie/zz_qe_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/qie/zz_qe_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395" activeTab="5"/>
+    <workbookView windowWidth="15690" windowHeight="13380" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="亚芬戴克斯" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="93">
   <si>
     <t>名称</t>
   </si>
@@ -67,15 +67,18 @@
     <t>圣殿卫士</t>
   </si>
   <si>
+    <t>黑金勒索者</t>
+  </si>
+  <si>
     <t>酗酒醉汉</t>
   </si>
   <si>
+    <t>增援战线</t>
+  </si>
+  <si>
     <t>不法交易</t>
   </si>
   <si>
-    <t>热血矿工</t>
-  </si>
-  <si>
     <t>光明惩戒</t>
   </si>
   <si>
@@ -133,45 +136,42 @@
     <t>夏日女郎·鲍莉</t>
   </si>
   <si>
+    <t>春花使者·卡洛琳</t>
+  </si>
+  <si>
+    <t>樱花·艾希尔</t>
+  </si>
+  <si>
+    <t>明日香·露娜</t>
+  </si>
+  <si>
+    <t>永恒之王·莱哈特</t>
+  </si>
+  <si>
+    <t>天雷降临·布瑞恩</t>
+  </si>
+  <si>
+    <t>武圣·云长</t>
+  </si>
+  <si>
+    <t>橙色卡等：</t>
+  </si>
+  <si>
+    <t>总计：</t>
+  </si>
+  <si>
+    <t>圣殿弩手</t>
+  </si>
+  <si>
+    <t>传记·钢铁守卫</t>
+  </si>
+  <si>
+    <t>召集护卫</t>
+  </si>
+  <si>
     <t>花光春影·安娜贝尔</t>
   </si>
   <si>
-    <t>春花使者·卡洛琳</t>
-  </si>
-  <si>
-    <t>樱花·艾希尔</t>
-  </si>
-  <si>
-    <t>明日香·露娜</t>
-  </si>
-  <si>
-    <t>永恒之王·莱哈特</t>
-  </si>
-  <si>
-    <t>天雷降临·布瑞恩</t>
-  </si>
-  <si>
-    <t>武圣·云长</t>
-  </si>
-  <si>
-    <t>橙色卡等：</t>
-  </si>
-  <si>
-    <t>总计：</t>
-  </si>
-  <si>
-    <t>圣殿弩手</t>
-  </si>
-  <si>
-    <t>增援战线</t>
-  </si>
-  <si>
-    <t>传记·钢铁守卫</t>
-  </si>
-  <si>
-    <t>召集护卫</t>
-  </si>
-  <si>
     <t>白袍·伊恩</t>
   </si>
   <si>
@@ -187,6 +187,9 @@
     <t>落雷击</t>
   </si>
   <si>
+    <t>炎球</t>
+  </si>
+  <si>
     <t>白羊药师</t>
   </si>
   <si>
@@ -251,6 +254,9 @@
   </si>
   <si>
     <t>红海猎魔人</t>
+  </si>
+  <si>
+    <t>夺魂死镰</t>
   </si>
   <si>
     <t>恶魔之心</t>
@@ -1283,8 +1289,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1318,7 +1324,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1332,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1388,7 +1394,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1399,10 +1405,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1416,7 +1422,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1430,7 +1436,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1441,17 +1447,25 @@
         <v>5</v>
       </c>
       <c r="C11" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
@@ -1460,44 +1474,36 @@
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1">
-        <f>AVERAGE(D2:D11)</f>
-        <v>17.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2">
-        <v>15</v>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1">
+        <f>AVERAGE(D2:D12)</f>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1505,13 +1511,13 @@
         <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19" s="2">
         <v>2</v>
       </c>
       <c r="D19" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1519,10 +1525,10 @@
         <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C20" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" s="2">
         <v>20</v>
@@ -1533,13 +1539,13 @@
         <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C21" s="2">
         <v>3</v>
       </c>
       <c r="D21" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1547,13 +1553,13 @@
         <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C22" s="2">
         <v>3</v>
       </c>
       <c r="D22" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1561,13 +1567,13 @@
         <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C23" s="2">
         <v>3</v>
       </c>
       <c r="D23" s="2">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1575,42 +1581,41 @@
         <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C24" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C25" s="2">
         <v>4</v>
       </c>
       <c r="D25" s="2">
-        <v>13</v>
-      </c>
-      <c r="F25" s="5"/>
+        <v>17</v>
+      </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C26" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F26" s="5"/>
     </row>
@@ -1619,21 +1624,30 @@
         <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="2">
+        <v>5</v>
+      </c>
+      <c r="D27" s="2">
+        <v>20</v>
+      </c>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="2">
+        <v>5</v>
+      </c>
+      <c r="D28" s="2">
         <v>17</v>
       </c>
-      <c r="C27" s="2">
-        <v>5</v>
-      </c>
-      <c r="D27" s="2">
-        <v>17</v>
-      </c>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2"/>
@@ -1642,44 +1656,36 @@
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="2">
-        <f>AVERAGE(D17:D27)</f>
-        <v>17.3636363636364</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="3" t="s">
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="3">
-        <v>2</v>
-      </c>
-      <c r="D33" s="3">
-        <v>17</v>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2">
+        <f>AVERAGE(D18:D28)</f>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="C34" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1687,13 +1693,13 @@
         <v>32</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C35" s="3">
         <v>3</v>
       </c>
       <c r="D35" s="3">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1701,13 +1707,13 @@
         <v>33</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C36" s="3">
         <v>4</v>
       </c>
       <c r="D36" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1715,13 +1721,13 @@
         <v>34</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C37" s="3">
         <v>4</v>
       </c>
       <c r="D37" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1729,13 +1735,13 @@
         <v>35</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C38" s="3">
         <v>4</v>
       </c>
       <c r="D38" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1743,13 +1749,13 @@
         <v>36</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C39" s="3">
         <v>5</v>
       </c>
       <c r="D39" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1757,7 +1763,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C40" s="3">
         <v>5</v>
@@ -1771,13 +1777,13 @@
         <v>38</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C41" s="3">
         <v>8</v>
       </c>
       <c r="D41" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1794,15 +1800,15 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
-        <f>AVERAGE(D33:D41)</f>
-        <v>15.2222222222222</v>
+        <f>AVERAGE(D34:D41)</f>
+        <v>16.25</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1812,8 +1818,8 @@
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
-        <f>AVERAGE(D2:D11,D17:D27,D33:D41)</f>
-        <v>16.6333333333333</v>
+        <f>AVERAGE(D2:D12,D18:D28,D34:D41)</f>
+        <v>17.5333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -1828,8 +1834,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1863,7 +1869,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1877,7 +1883,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1924,7 +1930,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -1947,12 +1953,12 @@
         <v>3</v>
       </c>
       <c r="D8" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -1961,12 +1967,12 @@
         <v>3</v>
       </c>
       <c r="D9" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -1992,37 +1998,37 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1">
         <f>AVERAGE(D2:D10)</f>
-        <v>17.5555555555556</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
       </c>
       <c r="D16" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
@@ -2033,10 +2039,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" s="2">
         <v>2</v>
@@ -2047,24 +2053,24 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19" s="2">
         <v>2</v>
       </c>
       <c r="D19" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C20" s="2">
         <v>3</v>
@@ -2075,38 +2081,38 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C21" s="2">
         <v>3</v>
       </c>
       <c r="D21" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C22" s="2">
         <v>3</v>
       </c>
       <c r="D22" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C23" s="2">
         <v>4</v>
@@ -2117,10 +2123,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C24" s="2">
         <v>4</v>
@@ -2131,25 +2137,25 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C25" s="2">
         <v>4</v>
       </c>
       <c r="D25" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C26" s="2">
         <v>5</v>
@@ -2173,57 +2179,57 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2">
         <f>AVERAGE(D16:D26)</f>
-        <v>17.0909090909091</v>
+        <v>17.7272727272727</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C32" s="3">
         <v>2</v>
       </c>
       <c r="D32" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="C33" s="3">
         <v>3</v>
       </c>
       <c r="D33" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C34" s="3">
         <v>3</v>
       </c>
       <c r="D34" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2231,13 +2237,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C35" s="3">
         <v>4</v>
       </c>
       <c r="D35" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2245,13 +2251,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C36" s="3">
         <v>4</v>
       </c>
       <c r="D36" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2259,13 +2265,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C37" s="3">
         <v>4</v>
       </c>
       <c r="D37" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2273,13 +2279,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C38" s="3">
         <v>5</v>
       </c>
       <c r="D38" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2287,7 +2293,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C39" s="3">
         <v>5</v>
@@ -2301,13 +2307,13 @@
         <v>45</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C40" s="3">
         <v>6</v>
       </c>
       <c r="D40" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2315,13 +2321,13 @@
         <v>38</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C41" s="3">
         <v>8</v>
       </c>
       <c r="D41" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2338,7 +2344,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>39</v>
@@ -2346,7 +2352,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D32:D41)</f>
-        <v>15.2</v>
+        <v>16.1</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2357,7 +2363,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D10,D16:D26,D32:D41)</f>
-        <v>16.6</v>
+        <v>17.2666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -2372,8 +2378,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2412,7 +2418,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -2435,12 +2441,12 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -2449,12 +2455,12 @@
         <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -2463,26 +2469,26 @@
         <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -2496,7 +2502,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -2510,7 +2516,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -2524,7 +2530,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
@@ -2538,7 +2544,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
@@ -2552,7 +2558,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>5</v>
@@ -2566,7 +2572,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>5</v>
@@ -2580,7 +2586,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>5</v>
@@ -2594,7 +2600,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>5</v>
@@ -2620,10 +2626,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1">
@@ -2633,10 +2639,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C22" s="2">
         <v>2</v>
@@ -2647,10 +2653,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C23" s="2">
         <v>2</v>
@@ -2661,10 +2667,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C24" s="2">
         <v>3</v>
@@ -2675,24 +2681,24 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C25" s="2">
         <v>3</v>
       </c>
       <c r="D25" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C26" s="2">
         <v>3</v>
@@ -2703,24 +2709,24 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C27" s="2">
         <v>3</v>
       </c>
       <c r="D27" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C28" s="2">
         <v>3</v>
@@ -2731,10 +2737,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C29" s="2">
         <v>4</v>
@@ -2745,10 +2751,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C30" s="2">
         <v>4</v>
@@ -2759,10 +2765,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C31" s="2">
         <v>4</v>
@@ -2773,10 +2779,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C32" s="2">
         <v>5</v>
@@ -2787,10 +2793,10 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C33" s="2">
         <v>6</v>
@@ -2814,57 +2820,57 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2">
         <f>AVERAGE(D22:D33)</f>
-        <v>18.1666666666667</v>
+        <v>18.3333333333333</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C39" s="3">
         <v>4</v>
       </c>
       <c r="D39" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C40" s="3">
         <v>5</v>
       </c>
       <c r="D40" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C41" s="3">
         <v>6</v>
       </c>
       <c r="D41" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2881,7 +2887,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>39</v>
@@ -2889,7 +2895,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D39:D41)</f>
-        <v>16.3333333333333</v>
+        <v>17.3333333333333</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2900,7 +2906,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D16,D22:D33,D39:D41)</f>
-        <v>18.5666666666667</v>
+        <v>18.7333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -2915,8 +2921,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2955,7 +2961,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -2964,12 +2970,12 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -2978,7 +2984,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3011,7 +3017,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -3025,13 +3031,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1">
         <v>20</v>
@@ -3039,7 +3045,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -3048,12 +3054,12 @@
         <v>3</v>
       </c>
       <c r="D9" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -3062,28 +3068,36 @@
         <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
         <v>4</v>
       </c>
-      <c r="D11" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
@@ -3092,30 +3106,22 @@
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1">
-        <f>AVERAGE(D2:D11)</f>
-        <v>18.9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="2">
-        <v>2</v>
-      </c>
-      <c r="D17" s="2">
-        <v>20</v>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1">
+        <f>AVERAGE(D2:D12)</f>
+        <v>18.5454545454545</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3123,7 +3129,7 @@
         <v>58</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" s="2">
         <v>2</v>
@@ -3134,10 +3140,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19" s="2">
         <v>2</v>
@@ -3148,10 +3154,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C20" s="2">
         <v>2</v>
@@ -3162,13 +3168,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C21" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" s="2">
         <v>20</v>
@@ -3176,10 +3182,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C22" s="2">
         <v>3</v>
@@ -3190,80 +3196,80 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C23" s="2">
         <v>3</v>
       </c>
       <c r="D23" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="2">
+        <v>3</v>
+      </c>
+      <c r="D24" s="2">
         <v>17</v>
-      </c>
-      <c r="C24" s="2">
-        <v>3</v>
-      </c>
-      <c r="D24" s="2">
-        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C25" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" s="2">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C26" s="2">
         <v>4</v>
       </c>
       <c r="D26" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="2">
+        <v>4</v>
+      </c>
+      <c r="D27" s="2">
         <v>17</v>
-      </c>
-      <c r="C27" s="2">
-        <v>5</v>
-      </c>
-      <c r="D27" s="2">
-        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C28" s="2">
         <v>5</v>
@@ -3272,142 +3278,143 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C29" s="2">
+        <v>5</v>
+      </c>
+      <c r="D29" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="2">
+        <v>5</v>
+      </c>
+      <c r="D30" s="2">
+        <v>15</v>
+      </c>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="2">
         <v>6</v>
       </c>
-      <c r="D29" s="2">
-        <v>18</v>
-      </c>
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+      <c r="D31" s="2">
+        <v>18</v>
+      </c>
+      <c r="F31" s="5"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="2">
-        <f>AVERAGE(D17:D29)</f>
-        <v>18.8461538461538</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="3" t="s">
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="3">
-        <v>2</v>
-      </c>
-      <c r="D35" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="3">
-        <v>2</v>
-      </c>
-      <c r="D36" s="3">
-        <v>10</v>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2">
+        <f>AVERAGE(D18:D31)</f>
+        <v>18.5714285714286</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="C37" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C38" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C39" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C40" s="3">
         <v>5</v>
       </c>
       <c r="D40" s="3">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C41" s="3">
         <v>6</v>
       </c>
       <c r="D41" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3424,15 +3431,15 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
-        <f>AVERAGE(D35:D41)</f>
-        <v>15.7142857142857</v>
+        <f>AVERAGE(D37:D41)</f>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3442,8 +3449,8 @@
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
-        <f>AVERAGE(D2:D11,D17:D29,D35:D41)</f>
-        <v>18.1333333333333</v>
+        <f>AVERAGE(D2:D12,D18:D31,D37:D41)</f>
+        <v>18.3</v>
       </c>
     </row>
   </sheetData>
@@ -3457,8 +3464,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3497,7 +3504,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -3506,12 +3513,12 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -3520,7 +3527,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3539,21 +3546,21 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -3587,10 +3594,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3604,28 +3611,36 @@
         <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
         <v>4</v>
       </c>
-      <c r="D11" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
@@ -3634,30 +3649,22 @@
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1">
-        <f>AVERAGE(D2:D11)</f>
-        <v>18.4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="2">
-        <v>2</v>
-      </c>
-      <c r="D17" s="2">
-        <v>20</v>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1">
+        <f>AVERAGE(D2:D12)</f>
+        <v>18.5454545454545</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3665,7 +3672,7 @@
         <v>58</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" s="2">
         <v>2</v>
@@ -3676,10 +3683,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19" s="2">
         <v>2</v>
@@ -3690,10 +3697,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C20" s="2">
         <v>2</v>
@@ -3704,13 +3711,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C21" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" s="2">
         <v>20</v>
@@ -3718,10 +3725,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C22" s="2">
         <v>3</v>
@@ -3732,80 +3739,80 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C23" s="2">
         <v>3</v>
       </c>
       <c r="D23" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="2">
+        <v>3</v>
+      </c>
+      <c r="D24" s="2">
         <v>17</v>
-      </c>
-      <c r="C24" s="2">
-        <v>3</v>
-      </c>
-      <c r="D24" s="2">
-        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C25" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" s="2">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C26" s="2">
         <v>4</v>
       </c>
       <c r="D26" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="2">
+        <v>4</v>
+      </c>
+      <c r="D27" s="2">
         <v>17</v>
-      </c>
-      <c r="C27" s="2">
-        <v>5</v>
-      </c>
-      <c r="D27" s="2">
-        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C28" s="2">
         <v>5</v>
@@ -3814,26 +3821,34 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C29" s="2">
+        <v>5</v>
+      </c>
+      <c r="D29" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="2">
         <v>6</v>
       </c>
-      <c r="D29" s="2">
-        <v>18</v>
-      </c>
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="D30" s="2">
+        <v>18</v>
+      </c>
+      <c r="F30" s="5"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2"/>
@@ -3842,58 +3857,50 @@
       <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="2">
-        <f>AVERAGE(D17:D29)</f>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2">
+        <f>AVERAGE(D18:D30)</f>
         <v>18.8461538461538</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="3">
-        <v>2</v>
-      </c>
-      <c r="D35" s="3">
-        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C36" s="3">
         <v>2</v>
       </c>
       <c r="D36" s="3">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="C37" s="3">
         <v>3</v>
       </c>
       <c r="D37" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3901,27 +3908,27 @@
         <v>34</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C38" s="3">
         <v>4</v>
       </c>
       <c r="D38" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C39" s="3">
         <v>5</v>
       </c>
       <c r="D39" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3929,7 +3936,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C40" s="3">
         <v>5</v>
@@ -3940,16 +3947,16 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C41" s="3">
         <v>6</v>
       </c>
       <c r="D41" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3966,15 +3973,15 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
-        <f>AVERAGE(D35:D41)</f>
-        <v>15.7142857142857</v>
+        <f>AVERAGE(D36:D41)</f>
+        <v>17.5</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3984,8 +3991,8 @@
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
-        <f>AVERAGE(D2:D11,D17:D29,D35:D41)</f>
-        <v>17.9666666666667</v>
+        <f>AVERAGE(D2:D12,D18:D30,D36:D41)</f>
+        <v>18.4666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -3997,10 +4004,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4034,29 +4041,29 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -4067,7 +4074,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -4078,7 +4085,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
@@ -4099,10 +4106,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1">
         <f>AVERAGE(C2:C7)</f>
@@ -4112,7 +4119,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B13" s="2">
         <v>2</v>
@@ -4123,7 +4130,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
@@ -4134,7 +4141,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B15" s="2">
         <v>3</v>
@@ -4145,7 +4152,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
@@ -4156,7 +4163,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
@@ -4167,7 +4174,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B18" s="2">
         <v>5</v>
@@ -4178,19 +4185,25 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B19" s="2">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="2">
         <v>6</v>
       </c>
-      <c r="C19" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="C20" s="2">
+        <v>18</v>
+      </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2"/>
@@ -4198,54 +4211,54 @@
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="2">
-        <f>AVERAGE(C13:C19)</f>
-        <v>19.2857142857143</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" s="3">
-        <v>2</v>
-      </c>
-      <c r="C25" s="3">
-        <v>10</v>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="2">
+        <f>AVERAGE(C13:C20)</f>
+        <v>18.75</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B26" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C26" s="3">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B27" s="3">
+        <v>5</v>
+      </c>
+      <c r="C27" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="3">
         <v>6</v>
       </c>
-      <c r="C27" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+      <c r="C28" s="3">
+        <v>16</v>
+      </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3"/>
@@ -4253,27 +4266,32 @@
       <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="3" t="s">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="3">
-        <f>AVERAGE(C25:C27)</f>
-        <v>14.3333333333333</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="4" t="s">
+      <c r="C31" s="3">
+        <f>AVERAGE(C26:C28)</f>
+        <v>15.6666666666667</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" s="4">
-        <f>AVERAGE(C2:C7,C13:C19,C25:C27)</f>
-        <v>18.5</v>
+      <c r="B34" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="4">
+        <f>AVERAGE(C2:C7,C13:C20,C26:C28)</f>
+        <v>18.5294117647059</v>
       </c>
     </row>
   </sheetData>
@@ -4288,7 +4306,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4344,7 +4362,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -4355,7 +4373,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
@@ -4366,7 +4384,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B7" s="1">
         <v>2</v>
@@ -4377,7 +4395,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B8" s="1">
         <v>2</v>
@@ -4388,7 +4406,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B9" s="1">
         <v>3</v>
@@ -4399,7 +4417,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B10" s="1">
         <v>4</v>
@@ -4420,10 +4438,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1">
         <f>AVERAGE(C2:C10)</f>
@@ -4433,18 +4451,18 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
       </c>
       <c r="C16" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
@@ -4455,18 +4473,18 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B18" s="2">
         <v>3</v>
       </c>
       <c r="C18" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B19" s="2">
         <v>4</v>
@@ -4477,7 +4495,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B20" s="2">
         <v>4</v>
@@ -4498,25 +4516,25 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" s="2">
         <f>AVERAGE(C16:C20)</f>
-        <v>16.6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B26" s="3">
         <v>4</v>
       </c>
       <c r="C26" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4531,14 +4549,14 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C29" s="3">
         <f>AVERAGE(C26:C26)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -4546,11 +4564,11 @@
         <v>40</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C10,C16:C20,C26:C26)</f>
-        <v>18.0666666666667</v>
+        <v>18.2666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -4565,7 +4583,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4594,7 +4612,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4635,10 +4653,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4649,18 +4667,18 @@
         <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4675,20 +4693,20 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1">
         <f>AVERAGE(C2:C8)</f>
-        <v>17.1428571428571</v>
+        <v>17.8571428571429</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
@@ -4699,7 +4717,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
@@ -4710,7 +4728,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
@@ -4721,7 +4739,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
@@ -4732,7 +4750,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
@@ -4743,7 +4761,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2">
         <v>5</v>
@@ -4764,10 +4782,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C22" s="2">
         <f>AVERAGE(C14:C19)</f>
@@ -4776,40 +4794,40 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B25" s="3">
         <v>2</v>
       </c>
       <c r="C25" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B26" s="3">
         <v>3</v>
       </c>
       <c r="C26" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B27" s="3">
         <v>4</v>
       </c>
       <c r="C27" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B28" s="3">
         <v>5</v>
@@ -4830,14 +4848,14 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C31" s="3">
         <f>AVERAGE(C25:C28)</f>
-        <v>16.75</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -4845,11 +4863,11 @@
         <v>40</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C34" s="4">
         <f>AVERAGE(C2:C8,C14:C19,C25:C28)</f>
-        <v>17.4705882352941</v>
+        <v>17.9411764705882</v>
       </c>
     </row>
   </sheetData>
@@ -4863,8 +4881,8 @@
   <sheetPr/>
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4893,7 +4911,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4904,7 +4922,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4915,23 +4933,23 @@
         <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -4952,31 +4970,31 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1">
         <f>AVERAGE(C2:C6)</f>
-        <v>17.8</v>
+        <v>18.6</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
       </c>
       <c r="C12" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
@@ -4987,40 +5005,40 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
       </c>
       <c r="C14" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2">
         <v>3</v>
       </c>
       <c r="C15" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
       </c>
       <c r="C16" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
@@ -5031,18 +5049,18 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2">
         <v>5</v>
@@ -5063,80 +5081,80 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C22" s="2">
         <f>AVERAGE(C12:C19)</f>
-        <v>16.375</v>
+        <v>17.25</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B25" s="3">
         <v>3</v>
       </c>
       <c r="C25" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B26" s="3">
         <v>4</v>
       </c>
       <c r="C26" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B27" s="3">
         <v>4</v>
       </c>
       <c r="C27" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B28" s="3">
         <v>5</v>
       </c>
       <c r="C28" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B29" s="3">
         <v>6</v>
       </c>
       <c r="C29" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B30" s="3">
         <v>8</v>
       </c>
       <c r="C30" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -5151,14 +5169,14 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C33" s="3">
         <f>AVERAGE(C25:C30)</f>
-        <v>14.1666666666667</v>
+        <v>15.1666666666667</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -5166,18 +5184,18 @@
         <v>40</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C36" s="4">
         <f>AVERAGE(C2:C6,C12:C19,C25:C30)</f>
-        <v>16.0526315789474</v>
+        <v>16.9473684210526</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C36 C9" formulaRange="1"/>
+    <ignoredError sqref="C9 C36" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/utils/sxsyzlzq/friends/qie/zz_qe_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/qie/zz_qe_level.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18525" windowHeight="12255" firstSheet="1"/>
+    <workbookView windowWidth="16020" windowHeight="12015" firstSheet="1"/>
   </bookViews>
   <sheets>
     <sheet name="炼狱" sheetId="8" r:id="rId1"/>
-    <sheet name="禅意" sheetId="9" r:id="rId2"/>
-    <sheet name="港口" sheetId="6" r:id="rId3"/>
-    <sheet name="帝国" sheetId="5" r:id="rId4"/>
+    <sheet name="港口" sheetId="6" r:id="rId2"/>
+    <sheet name="帝国" sheetId="5" r:id="rId3"/>
+    <sheet name="禅意" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="75">
   <si>
     <t>名称</t>
   </si>
@@ -47,12 +47,6 @@
     <t>落雷击</t>
   </si>
   <si>
-    <t>炎球</t>
-  </si>
-  <si>
-    <t>无面狂奔者</t>
-  </si>
-  <si>
     <t>猩红勇士</t>
   </si>
   <si>
@@ -92,9 +86,6 @@
     <t>紫色卡等：</t>
   </si>
   <si>
-    <t>痛苦之心</t>
-  </si>
-  <si>
     <t>怨魂饕餮兽</t>
   </si>
   <si>
@@ -110,24 +101,138 @@
     <t>炼狱卡等：</t>
   </si>
   <si>
+    <t>心灵黑洞</t>
+  </si>
+  <si>
+    <t>狡诈学徒</t>
+  </si>
+  <si>
+    <t>黑夜突袭</t>
+  </si>
+  <si>
+    <t>黑金勒索者</t>
+  </si>
+  <si>
+    <t>酗酒醉汉</t>
+  </si>
+  <si>
+    <t>不法交易</t>
+  </si>
+  <si>
+    <t>海燕精卫</t>
+  </si>
+  <si>
+    <t>红海猎魔人</t>
+  </si>
+  <si>
+    <t>黑水伏击</t>
+  </si>
+  <si>
+    <t>寒夜灯灵</t>
+  </si>
+  <si>
+    <t>黑金诈术师</t>
+  </si>
+  <si>
+    <t>星辰陨落</t>
+  </si>
+  <si>
+    <t>花剑绅士·翔</t>
+  </si>
+  <si>
+    <t>海燕·鲍莉</t>
+  </si>
+  <si>
+    <t>赤影·艾希尔</t>
+  </si>
+  <si>
+    <t>钢之咆哮·布瑞恩</t>
+  </si>
+  <si>
+    <t>港口卡等：</t>
+  </si>
+  <si>
+    <t>圣殿斥候</t>
+  </si>
+  <si>
+    <t>圣殿弩手</t>
+  </si>
+  <si>
+    <t>增援战线</t>
+  </si>
+  <si>
+    <t>田园守望者</t>
+  </si>
+  <si>
+    <t>光明惩戒</t>
+  </si>
+  <si>
+    <t>四芒军旗</t>
+  </si>
+  <si>
+    <t>传记·钢铁守卫</t>
+  </si>
+  <si>
+    <t>圣殿御卫</t>
+  </si>
+  <si>
+    <t>白袍主教</t>
+  </si>
+  <si>
+    <t>圣殿骑士</t>
+  </si>
+  <si>
+    <t>召集护卫</t>
+  </si>
+  <si>
+    <t>阳炎坠落</t>
+  </si>
+  <si>
+    <t>禁卫百夫长</t>
+  </si>
+  <si>
+    <t>曙光·安娜贝尔</t>
+  </si>
+  <si>
+    <t>圣枪·卡洛琳</t>
+  </si>
+  <si>
+    <t>明日之音·露娜</t>
+  </si>
+  <si>
+    <t>帝国军魂·莱哈特</t>
+  </si>
+  <si>
+    <t>正阳大主教·伊恩</t>
+  </si>
+  <si>
+    <t>钢铁统帅·雷蒙德</t>
+  </si>
+  <si>
+    <t>帝国卡等：</t>
+  </si>
+  <si>
     <t>箭竹守卫</t>
   </si>
   <si>
-    <t>卜命道长</t>
-  </si>
-  <si>
     <t>白羊药师</t>
   </si>
   <si>
     <t>树木之怒</t>
   </si>
   <si>
-    <t>疾风猎手</t>
+    <t>执剑道者</t>
+  </si>
+  <si>
+    <t>连击</t>
   </si>
   <si>
     <t>风铃道人</t>
   </si>
   <si>
+    <t>风卷残云</t>
+  </si>
+  <si>
     <t>逍遥琴师</t>
   </si>
   <si>
@@ -140,121 +245,16 @@
     <t>疾风传说</t>
   </si>
   <si>
+    <t>萌化术</t>
+  </si>
+  <si>
     <t>神机玄女·轩</t>
   </si>
   <si>
+    <t>悟能禅杖</t>
+  </si>
+  <si>
     <t>禅意卡等：</t>
-  </si>
-  <si>
-    <t>心灵黑洞</t>
-  </si>
-  <si>
-    <t>狡诈学徒</t>
-  </si>
-  <si>
-    <t>黑夜突袭</t>
-  </si>
-  <si>
-    <t>黑金勒索者</t>
-  </si>
-  <si>
-    <t>酗酒醉汉</t>
-  </si>
-  <si>
-    <t>不法交易</t>
-  </si>
-  <si>
-    <t>海燕精卫</t>
-  </si>
-  <si>
-    <t>红海猎魔人</t>
-  </si>
-  <si>
-    <t>黑水伏击</t>
-  </si>
-  <si>
-    <t>寒夜灯灵</t>
-  </si>
-  <si>
-    <t>黑金诈术师</t>
-  </si>
-  <si>
-    <t>星辰陨落</t>
-  </si>
-  <si>
-    <t>花剑绅士·翔</t>
-  </si>
-  <si>
-    <t>海燕·鲍莉</t>
-  </si>
-  <si>
-    <t>赤影·艾希尔</t>
-  </si>
-  <si>
-    <t>钢之咆哮·布瑞恩</t>
-  </si>
-  <si>
-    <t>港口卡等：</t>
-  </si>
-  <si>
-    <t>圣殿斥候</t>
-  </si>
-  <si>
-    <t>圣殿卫士</t>
-  </si>
-  <si>
-    <t>圣殿弩手</t>
-  </si>
-  <si>
-    <t>增援战线</t>
-  </si>
-  <si>
-    <t>光明惩戒</t>
-  </si>
-  <si>
-    <t>四芒军旗</t>
-  </si>
-  <si>
-    <t>传记·钢铁守卫</t>
-  </si>
-  <si>
-    <t>圣殿御卫</t>
-  </si>
-  <si>
-    <t>白袍主教</t>
-  </si>
-  <si>
-    <t>圣殿骑士</t>
-  </si>
-  <si>
-    <t>召集护卫</t>
-  </si>
-  <si>
-    <t>阳炎坠落</t>
-  </si>
-  <si>
-    <t>禁卫百夫长</t>
-  </si>
-  <si>
-    <t>曙光·安娜贝尔</t>
-  </si>
-  <si>
-    <t>圣枪·卡洛琳</t>
-  </si>
-  <si>
-    <t>明日之音·露娜</t>
-  </si>
-  <si>
-    <t>帝国军魂·莱哈特</t>
-  </si>
-  <si>
-    <t>正阳大主教·伊恩</t>
-  </si>
-  <si>
-    <t>钢铁统帅·雷蒙德</t>
-  </si>
-  <si>
-    <t>帝国卡等：</t>
   </si>
 </sst>
 </file>
@@ -1218,10 +1218,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="A5" sqref="$A5:$XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1255,85 +1255,85 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1">
-        <v>20</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <f>AVERAGE(C2:C6)</f>
+        <v>19.6</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1">
-        <f>AVERAGE(C2:C7)</f>
-        <v>19.6666666666667</v>
-      </c>
-      <c r="D10" s="2"/>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="2">
         <v>2</v>
@@ -1344,10 +1344,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" s="2">
         <v>20</v>
@@ -1355,32 +1355,32 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="2">
         <v>3</v>
       </c>
       <c r="C15" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C17" s="2">
         <v>20</v>
@@ -1388,36 +1388,30 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="2">
         <v>5</v>
       </c>
       <c r="C18" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2">
-        <v>6</v>
-      </c>
-      <c r="C20" s="2">
-        <v>18</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2"/>
@@ -1425,87 +1419,71 @@
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="2" t="s">
+      <c r="A22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2">
+        <f>AVERAGE(C12:C19)</f>
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="3">
+        <v>5</v>
+      </c>
+      <c r="C25" s="3">
         <v>19</v>
-      </c>
-      <c r="C23" s="2">
-        <f>AVERAGE(C13:C20)</f>
-        <v>18.75</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C26" s="3">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="3">
+        <f>AVERAGE(C25:C26)</f>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="3">
-        <v>5</v>
-      </c>
-      <c r="C27" s="3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
+      <c r="B32" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="3">
-        <v>6</v>
-      </c>
-      <c r="C28" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="3">
-        <f>AVERAGE(C26:C28)</f>
-        <v>15.6666666666667</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="4">
-        <f>AVERAGE(C2:C7,C13:C20,C26:C28)</f>
-        <v>18.5294117647059</v>
+      <c r="C32" s="4">
+        <f>AVERAGE(C2:C6,C12:C19,C25:C26)</f>
+        <v>18.8666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -1517,10 +1495,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1543,32 +1521,32 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
         <v>20</v>
@@ -1576,96 +1554,96 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1">
+        <f>AVERAGE(C2:C8)</f>
+        <v>18</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B14" s="2">
         <v>2</v>
       </c>
-      <c r="C8" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
+      <c r="C14" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="1">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="1">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1">
-        <f>AVERAGE(C2:C10)</f>
-        <v>19.1111111111111</v>
-      </c>
-      <c r="D13" s="2"/>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
@@ -1676,13 +1654,13 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
       </c>
       <c r="C17" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1690,10 +1668,10 @@
         <v>33</v>
       </c>
       <c r="B18" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1701,22 +1679,16 @@
         <v>34</v>
       </c>
       <c r="B19" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C19" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="2">
-        <v>4</v>
-      </c>
-      <c r="C20" s="2">
-        <v>15</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2"/>
@@ -1724,20 +1696,26 @@
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="2">
-        <f>AVERAGE(C16:C20)</f>
+      <c r="A22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="C22" s="2">
+        <f>AVERAGE(C14:C19)</f>
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="3">
+        <v>2</v>
+      </c>
+      <c r="C25" s="3">
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1745,44 +1723,66 @@
         <v>36</v>
       </c>
       <c r="B26" s="3">
+        <v>3</v>
+      </c>
+      <c r="C26" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="3">
         <v>4</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C27" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="3">
+        <v>5</v>
+      </c>
+      <c r="C28" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-    </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="3">
-        <f>AVERAGE(C26:C26)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="4">
-        <f>AVERAGE(C2:C10,C16:C20,C26:C26)</f>
-        <v>18.2666666666667</v>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="3">
+        <f>AVERAGE(C25:C28)</f>
+        <v>17.75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="4">
+        <f>AVERAGE(C2:C8,C14:C19,C25:C28)</f>
+        <v>18.1176470588235</v>
       </c>
     </row>
   </sheetData>
@@ -1792,305 +1792,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="16.375" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="1">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1">
-        <f>AVERAGE(C2:C8)</f>
-        <v>17.8571428571429</v>
-      </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="2">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="2">
-        <v>3</v>
-      </c>
-      <c r="C16" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="2">
-        <v>3</v>
-      </c>
-      <c r="C17" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="2">
-        <v>4</v>
-      </c>
-      <c r="C18" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="2">
-        <v>5</v>
-      </c>
-      <c r="C19" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="2">
-        <f>AVERAGE(C14:C19)</f>
-        <v>18.3333333333333</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="3">
-        <v>2</v>
-      </c>
-      <c r="C25" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="3">
-        <v>3</v>
-      </c>
-      <c r="C26" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="3">
-        <v>4</v>
-      </c>
-      <c r="C27" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="3">
-        <v>5</v>
-      </c>
-      <c r="C28" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="3">
-        <f>AVERAGE(C25:C28)</f>
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" s="4">
-        <f>AVERAGE(C2:C8,C14:C19,C25:C28)</f>
-        <v>17.9411764705882</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D36"/>
@@ -2119,21 +1820,21 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
         <v>20</v>
@@ -2141,7 +1842,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -2152,18 +1853,18 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -2184,10 +1885,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1">
         <f>AVERAGE(C2:C6)</f>
@@ -2197,29 +1898,29 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
       </c>
       <c r="C12" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
       </c>
       <c r="C13" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
@@ -2230,7 +1931,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B15" s="2">
         <v>3</v>
@@ -2241,7 +1942,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
@@ -2252,35 +1953,35 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B19" s="2">
         <v>5</v>
       </c>
       <c r="C19" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2295,30 +1996,30 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C22" s="2">
         <f>AVERAGE(C12:C19)</f>
-        <v>17.25</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B25" s="3">
         <v>3</v>
       </c>
       <c r="C25" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B26" s="3">
         <v>4</v>
@@ -2329,29 +2030,29 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B27" s="3">
         <v>4</v>
       </c>
       <c r="C27" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B28" s="3">
         <v>5</v>
       </c>
       <c r="C28" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B29" s="3">
         <v>6</v>
@@ -2362,13 +2063,13 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B30" s="3">
         <v>8</v>
       </c>
       <c r="C30" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2383,33 +2084,310 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C33" s="3">
         <f>AVERAGE(C25:C30)</f>
-        <v>15.1666666666667</v>
+        <v>15.8333333333333</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C36" s="4">
         <f>AVERAGE(C2:C6,C12:C19,C25:C30)</f>
-        <v>16.9473684210526</v>
+        <v>17.7894736842105</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C36 C9" formulaRange="1"/>
+    <ignoredError sqref="C9 C36" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1">
+        <f>AVERAGE(C2:C9)</f>
+        <v>17.25</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="2">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="2">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="2">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2">
+        <f>AVERAGE(C15:C19)</f>
+        <v>16.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="3">
+        <v>4</v>
+      </c>
+      <c r="C25" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="3">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="3">
+        <f>AVERAGE(C25:C26)</f>
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="4">
+        <f>AVERAGE(C2:C9,C15:C19,C25:C26)</f>
+        <v>16.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/src/utils/sxsyzlzq/friends/qie/zz_qe_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/qie/zz_qe_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16020" windowHeight="12015" firstSheet="1"/>
+    <workbookView windowWidth="15375" windowHeight="8130" firstSheet="1"/>
   </bookViews>
   <sheets>
     <sheet name="炼狱" sheetId="8" r:id="rId1"/>
@@ -107,10 +107,10 @@
     <t>狡诈学徒</t>
   </si>
   <si>
+    <t>黑金勒索者</t>
+  </si>
+  <si>
     <t>黑夜突袭</t>
-  </si>
-  <si>
-    <t>黑金勒索者</t>
   </si>
   <si>
     <t>酗酒醉汉</t>
@@ -1220,8 +1220,8 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="$A5:$XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1394,7 +1394,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C22" s="2">
         <f>AVERAGE(C12:C19)</f>
-        <v>18.75</v>
+        <v>18.875</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C6,C12:C19,C25:C26)</f>
-        <v>18.8666666666667</v>
+        <v>18.9333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -1497,8 +1497,8 @@
   <sheetPr/>
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1571,7 +1571,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1593,7 +1593,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="C11" s="1">
         <f>AVERAGE(C2:C8)</f>
-        <v>18</v>
+        <v>18.2857142857143</v>
       </c>
       <c r="D11" s="2"/>
     </row>
@@ -1737,7 +1737,7 @@
         <v>4</v>
       </c>
       <c r="C27" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1770,7 +1770,7 @@
       </c>
       <c r="C31" s="3">
         <f>AVERAGE(C25:C28)</f>
-        <v>17.75</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1782,7 +1782,7 @@
       </c>
       <c r="C34" s="4">
         <f>AVERAGE(C2:C8,C14:C19,C25:C28)</f>
-        <v>18.1176470588235</v>
+        <v>18.2941176470588</v>
       </c>
     </row>
   </sheetData>
@@ -1796,8 +1796,8 @@
   <sheetPr/>
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2025,7 +2025,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="C33" s="3">
         <f>AVERAGE(C25:C30)</f>
-        <v>15.8333333333333</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="C36" s="4">
         <f>AVERAGE(C2:C6,C12:C19,C25:C30)</f>
-        <v>17.7894736842105</v>
+        <v>17.8421052631579</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/friends/qie/zz_qe_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/qie/zz_qe_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15375" windowHeight="8130" firstSheet="1"/>
+    <workbookView windowWidth="10890" windowHeight="11010" firstSheet="1"/>
   </bookViews>
   <sheets>
     <sheet name="炼狱" sheetId="8" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="72">
   <si>
     <t>名称</t>
   </si>
@@ -86,6 +86,9 @@
     <t>紫色卡等：</t>
   </si>
   <si>
+    <t>痛苦之心</t>
+  </si>
+  <si>
     <t>怨魂饕餮兽</t>
   </si>
   <si>
@@ -158,21 +161,21 @@
     <t>圣殿弩手</t>
   </si>
   <si>
+    <t>田园守望者</t>
+  </si>
+  <si>
     <t>增援战线</t>
   </si>
   <si>
-    <t>田园守望者</t>
-  </si>
-  <si>
     <t>光明惩戒</t>
   </si>
   <si>
+    <t>传记·钢铁守卫</t>
+  </si>
+  <si>
     <t>四芒军旗</t>
   </si>
   <si>
-    <t>传记·钢铁守卫</t>
-  </si>
-  <si>
     <t>圣殿御卫</t>
   </si>
   <si>
@@ -221,18 +224,12 @@
     <t>树木之怒</t>
   </si>
   <si>
-    <t>执剑道者</t>
-  </si>
-  <si>
     <t>连击</t>
   </si>
   <si>
     <t>风铃道人</t>
   </si>
   <si>
-    <t>风卷残云</t>
-  </si>
-  <si>
     <t>逍遥琴师</t>
   </si>
   <si>
@@ -240,12 +237,6 @@
   </si>
   <si>
     <t>御风武者</t>
-  </si>
-  <si>
-    <t>疾风传说</t>
-  </si>
-  <si>
-    <t>萌化术</t>
   </si>
   <si>
     <t>神机玄女·轩</t>
@@ -1220,8 +1211,8 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1255,7 +1246,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -1266,63 +1257,63 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1">
-        <v>20</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1">
-        <f>AVERAGE(C2:C6)</f>
-        <v>19.6</v>
-      </c>
-      <c r="D9" s="2"/>
+      <c r="C8" s="1">
+        <f>AVERAGE(C2:C5)</f>
+        <v>20</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
@@ -1333,10 +1324,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" s="2">
         <v>20</v>
@@ -1344,32 +1335,32 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2">
         <v>3</v>
       </c>
       <c r="C14" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16" s="2">
         <v>20</v>
@@ -1377,36 +1368,30 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2">
         <v>5</v>
       </c>
       <c r="C17" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="2">
-        <v>6</v>
-      </c>
-      <c r="C19" s="2">
-        <v>18</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2"/>
@@ -1414,36 +1399,42 @@
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
+      <c r="A21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="2">
-        <f>AVERAGE(C12:C19)</f>
-        <v>18.875</v>
+      <c r="C21" s="2">
+        <f>AVERAGE(C11:C18)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2</v>
+      </c>
+      <c r="C24" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B25" s="3">
         <v>5</v>
       </c>
       <c r="C25" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B26" s="3">
         <v>6</v>
@@ -1467,23 +1458,23 @@
         <v>7</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C29" s="3">
-        <f>AVERAGE(C25:C26)</f>
-        <v>17.5</v>
+        <f>AVERAGE(C24:C26)</f>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C32" s="4">
-        <f>AVERAGE(C2:C6,C12:C19,C25:C26)</f>
-        <v>18.9333333333333</v>
+        <f>AVERAGE(C2:C5,C11:C18,C24:C26)</f>
+        <v>18.6666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -1497,8 +1488,8 @@
   <sheetPr/>
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1521,7 +1512,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -1532,7 +1523,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -1543,7 +1534,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -1554,7 +1545,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -1565,7 +1556,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
@@ -1576,7 +1567,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -1587,7 +1578,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
@@ -1621,7 +1612,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
@@ -1632,7 +1623,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
@@ -1643,7 +1634,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
@@ -1654,7 +1645,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
@@ -1665,18 +1656,18 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2">
         <v>5</v>
@@ -1704,23 +1695,23 @@
       </c>
       <c r="C22" s="2">
         <f>AVERAGE(C14:C19)</f>
-        <v>18.5</v>
+        <v>18.6666666666667</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25" s="3">
         <v>2</v>
       </c>
       <c r="C25" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" s="3">
         <v>3</v>
@@ -1731,7 +1722,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B27" s="3">
         <v>4</v>
@@ -1742,7 +1733,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B28" s="3">
         <v>5</v>
@@ -1766,23 +1757,23 @@
         <v>7</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C31" s="3">
         <f>AVERAGE(C25:C28)</f>
-        <v>18</v>
+        <v>18.25</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C34" s="4">
         <f>AVERAGE(C2:C8,C14:C19,C25:C28)</f>
-        <v>18.2941176470588</v>
+        <v>18.4117647058824</v>
       </c>
     </row>
   </sheetData>
@@ -1796,8 +1787,8 @@
   <sheetPr/>
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1820,7 +1811,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -1831,7 +1822,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>
@@ -1842,7 +1833,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -1853,18 +1844,18 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -1892,24 +1883,24 @@
       </c>
       <c r="C9" s="1">
         <f>AVERAGE(C2:C6)</f>
-        <v>18.6</v>
+        <v>18.8</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
       </c>
       <c r="C12" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
@@ -1920,7 +1911,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
@@ -1931,7 +1922,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B15" s="2">
         <v>3</v>
@@ -1942,7 +1933,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
@@ -1953,35 +1944,35 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B19" s="2">
         <v>5</v>
       </c>
       <c r="C19" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2003,23 +1994,23 @@
       </c>
       <c r="C22" s="2">
         <f>AVERAGE(C12:C19)</f>
-        <v>18.75</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B25" s="3">
         <v>3</v>
       </c>
       <c r="C25" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B26" s="3">
         <v>4</v>
@@ -2030,7 +2021,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B27" s="3">
         <v>4</v>
@@ -2041,29 +2032,29 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B28" s="3">
         <v>5</v>
       </c>
       <c r="C28" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B29" s="3">
         <v>6</v>
       </c>
       <c r="C29" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B30" s="3">
         <v>8</v>
@@ -2087,30 +2078,30 @@
         <v>7</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C33" s="3">
         <f>AVERAGE(C25:C30)</f>
-        <v>16</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C36" s="4">
         <f>AVERAGE(C2:C6,C12:C19,C25:C30)</f>
-        <v>17.8421052631579</v>
+        <v>18.3684210526316</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C9 C36" formulaRange="1"/>
+    <ignoredError sqref="C36 C9" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2118,10 +2109,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2144,7 +2135,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -2155,7 +2146,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -2166,7 +2157,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -2177,213 +2168,158 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <f>AVERAGE(C2:C6)</f>
+        <v>18.4</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="2">
         <v>3</v>
       </c>
-      <c r="C6" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="C12" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="2">
         <v>3</v>
       </c>
-      <c r="C7" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="1">
+      <c r="C13" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="2">
         <v>4</v>
       </c>
-      <c r="C8" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="1">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="1">
-        <f>AVERAGE(C2:C9)</f>
-        <v>17.25</v>
-      </c>
-      <c r="D12" s="2"/>
+      <c r="C14" s="2">
+        <v>18</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="2">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2">
-        <v>20</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="2">
-        <v>3</v>
-      </c>
-      <c r="C16" s="2">
-        <v>17</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="2">
+        <f>AVERAGE(C12:C14)</f>
+        <v>18.3333333333333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B20" s="3">
         <v>4</v>
       </c>
-      <c r="C17" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
+      <c r="C20" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B21" s="3">
         <v>4</v>
       </c>
-      <c r="C18" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
+      <c r="C21" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="3">
+        <f>AVERAGE(C20:C21)</f>
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="2">
-        <v>4</v>
-      </c>
-      <c r="C19" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="2">
-        <f>AVERAGE(C15:C19)</f>
-        <v>16.4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="3">
-        <v>4</v>
-      </c>
-      <c r="C25" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B26" s="3">
-        <v>4</v>
-      </c>
-      <c r="C26" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="3">
-        <f>AVERAGE(C25:C26)</f>
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" s="4">
-        <f>AVERAGE(C2:C9,C15:C19,C25:C26)</f>
-        <v>16.6</v>
+      <c r="C27" s="4">
+        <f>AVERAGE(C2:C6,C12:C14,C20:C21)</f>
+        <v>17.6</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/friends/qie/zz_qe_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/qie/zz_qe_level.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10890" windowHeight="11010" firstSheet="1"/>
+    <workbookView windowWidth="12585" windowHeight="10125" firstSheet="1"/>
   </bookViews>
   <sheets>
     <sheet name="炼狱" sheetId="8" r:id="rId1"/>
-    <sheet name="港口" sheetId="6" r:id="rId2"/>
-    <sheet name="帝国" sheetId="5" r:id="rId3"/>
-    <sheet name="禅意" sheetId="9" r:id="rId4"/>
+    <sheet name="帝国" sheetId="5" r:id="rId2"/>
+    <sheet name="港口" sheetId="6" r:id="rId3"/>
+    <sheet name="隐秘" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="74">
   <si>
     <t>名称</t>
   </si>
@@ -104,6 +104,66 @@
     <t>炼狱卡等：</t>
   </si>
   <si>
+    <t>圣殿斥候</t>
+  </si>
+  <si>
+    <t>圣殿弩手</t>
+  </si>
+  <si>
+    <t>田园守望者</t>
+  </si>
+  <si>
+    <t>增援战线</t>
+  </si>
+  <si>
+    <t>传记·钢铁守卫</t>
+  </si>
+  <si>
+    <t>四芒军旗</t>
+  </si>
+  <si>
+    <t>圣殿御卫</t>
+  </si>
+  <si>
+    <t>白袍主教</t>
+  </si>
+  <si>
+    <t>圣殿骑士</t>
+  </si>
+  <si>
+    <t>召集护卫</t>
+  </si>
+  <si>
+    <t>阳炎坠落</t>
+  </si>
+  <si>
+    <t>禁卫百夫长</t>
+  </si>
+  <si>
+    <t>曙光·安娜贝尔</t>
+  </si>
+  <si>
+    <t>圣枪·卡洛琳</t>
+  </si>
+  <si>
+    <t>明日之音·露娜</t>
+  </si>
+  <si>
+    <t>帝国军魂·莱哈特</t>
+  </si>
+  <si>
+    <t>正阳大主教·伊恩</t>
+  </si>
+  <si>
+    <t>炫目天使·蕾娜</t>
+  </si>
+  <si>
+    <t>钢铁统帅·雷蒙德</t>
+  </si>
+  <si>
+    <t>帝国卡等：</t>
+  </si>
+  <si>
     <t>心灵黑洞</t>
   </si>
   <si>
@@ -152,100 +212,46 @@
     <t>钢之咆哮·布瑞恩</t>
   </si>
   <si>
+    <t>黑金三代目·梅森</t>
+  </si>
+  <si>
     <t>港口卡等：</t>
   </si>
   <si>
-    <t>圣殿斥候</t>
-  </si>
-  <si>
-    <t>圣殿弩手</t>
-  </si>
-  <si>
-    <t>田园守望者</t>
-  </si>
-  <si>
-    <t>增援战线</t>
-  </si>
-  <si>
-    <t>光明惩戒</t>
-  </si>
-  <si>
-    <t>传记·钢铁守卫</t>
-  </si>
-  <si>
-    <t>四芒军旗</t>
-  </si>
-  <si>
-    <t>圣殿御卫</t>
-  </si>
-  <si>
-    <t>白袍主教</t>
-  </si>
-  <si>
-    <t>圣殿骑士</t>
-  </si>
-  <si>
-    <t>召集护卫</t>
-  </si>
-  <si>
-    <t>阳炎坠落</t>
-  </si>
-  <si>
-    <t>禁卫百夫长</t>
-  </si>
-  <si>
-    <t>曙光·安娜贝尔</t>
-  </si>
-  <si>
-    <t>圣枪·卡洛琳</t>
-  </si>
-  <si>
-    <t>明日之音·露娜</t>
-  </si>
-  <si>
-    <t>帝国军魂·莱哈特</t>
-  </si>
-  <si>
-    <t>正阳大主教·伊恩</t>
-  </si>
-  <si>
-    <t>钢铁统帅·雷蒙德</t>
-  </si>
-  <si>
-    <t>帝国卡等：</t>
-  </si>
-  <si>
-    <t>箭竹守卫</t>
-  </si>
-  <si>
-    <t>白羊药师</t>
-  </si>
-  <si>
-    <t>树木之怒</t>
-  </si>
-  <si>
-    <t>连击</t>
-  </si>
-  <si>
-    <t>风铃道人</t>
-  </si>
-  <si>
-    <t>逍遥琴师</t>
-  </si>
-  <si>
-    <t>扫叶僧</t>
-  </si>
-  <si>
-    <t>御风武者</t>
-  </si>
-  <si>
-    <t>神机玄女·轩</t>
-  </si>
-  <si>
-    <t>悟能禅杖</t>
-  </si>
-  <si>
-    <t>禅意卡等：</t>
+    <t>沉重否定</t>
+  </si>
+  <si>
+    <t>破魔系教授</t>
+  </si>
+  <si>
+    <t>克隆术</t>
+  </si>
+  <si>
+    <t>学仆-脉冲型</t>
+  </si>
+  <si>
+    <t>观星台大预言家</t>
+  </si>
+  <si>
+    <t>幻象巨龙</t>
+  </si>
+  <si>
+    <t>米拉方舟</t>
+  </si>
+  <si>
+    <t>No.5咒刃·布雷克</t>
+  </si>
+  <si>
+    <t>鬼童-7号</t>
+  </si>
+  <si>
+    <t>No.2时光·米拉</t>
+  </si>
+  <si>
+    <t>No.6沃凡瑞拉</t>
+  </si>
+  <si>
+    <t>隐秘卡等：</t>
   </si>
 </sst>
 </file>
@@ -1486,10 +1492,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1518,26 +1524,26 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
         <v>20</v>
@@ -1545,77 +1551,77 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1">
+        <f>AVERAGE(C2:C5)</f>
+        <v>20</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="1">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1">
-        <f>AVERAGE(C2:C8)</f>
-        <v>18.2857142857143</v>
-      </c>
-      <c r="D11" s="2"/>
+      <c r="C13" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" s="2">
         <v>20</v>
@@ -1623,10 +1629,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" s="2">
         <v>20</v>
@@ -1634,10 +1640,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" s="2">
         <v>20</v>
@@ -1645,36 +1651,30 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="2">
-        <v>5</v>
-      </c>
-      <c r="C19" s="2">
-        <v>20</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2"/>
@@ -1682,28 +1682,34 @@
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
+      <c r="A21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="2">
-        <f>AVERAGE(C14:C19)</f>
-        <v>18.6666666666667</v>
+      <c r="C21" s="2">
+        <f>AVERAGE(C11:C18)</f>
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="3">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3">
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C25" s="3">
         <v>19</v>
@@ -1711,84 +1717,109 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C26" s="3">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C27" s="3">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C28" s="3">
         <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+      <c r="A29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="3">
+        <v>7</v>
+      </c>
+      <c r="C29" s="3">
+        <v>16</v>
+      </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
+      <c r="A30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="3">
+        <v>8</v>
+      </c>
+      <c r="C30" s="3">
+        <v>15</v>
+      </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="3">
-        <f>AVERAGE(C25:C28)</f>
-        <v>18.25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="4" t="s">
+      <c r="C33" s="3">
+        <f>AVERAGE(C24:C30)</f>
+        <v>16.5714285714286</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="4">
-        <f>AVERAGE(C2:C8,C14:C19,C25:C28)</f>
-        <v>18.4117647058824</v>
+      <c r="B36" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="4">
+        <f>AVERAGE(C2:C5,C11:C18,C24:C30)</f>
+        <v>18.5263157894737</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <ignoredErrors>
+    <ignoredError sqref="C8 C36" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1811,32 +1842,32 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
         <v>20</v>
@@ -1844,10 +1875,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
         <v>20</v>
@@ -1855,63 +1886,63 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B6" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
+      <c r="A8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1">
-        <f>AVERAGE(C2:C6)</f>
-        <v>18.8</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>18</v>
-      </c>
+      <c r="C11" s="1">
+        <f>AVERAGE(C2:C8)</f>
+        <v>18.4285714285714</v>
+      </c>
+      <c r="D11" s="2"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
@@ -1922,10 +1953,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B15" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" s="2">
         <v>20</v>
@@ -1933,7 +1964,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
@@ -1944,35 +1975,35 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B17" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" s="2">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B19" s="2">
         <v>5</v>
       </c>
       <c r="C19" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1993,75 +2024,69 @@
         <v>17</v>
       </c>
       <c r="C22" s="2">
-        <f>AVERAGE(C12:C19)</f>
-        <v>19.5</v>
+        <f>AVERAGE(C14:C19)</f>
+        <v>18.6666666666667</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B25" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" s="3">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B26" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B27" s="3">
         <v>4</v>
       </c>
       <c r="C27" s="3">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B28" s="3">
         <v>5</v>
       </c>
       <c r="C28" s="3">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B29" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C29" s="3">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="3">
-        <v>8</v>
-      </c>
-      <c r="C30" s="3">
-        <v>15</v>
-      </c>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="3"/>
@@ -2069,50 +2094,42 @@
       <c r="C31" s="3"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="3" t="s">
+      <c r="A32" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="3">
-        <f>AVERAGE(C25:C30)</f>
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="4" t="s">
+      <c r="C32" s="3">
+        <f>AVERAGE(C25:C29)</f>
+        <v>17.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" s="4">
-        <f>AVERAGE(C2:C6,C12:C19,C25:C30)</f>
-        <v>18.3684210526316</v>
+      <c r="B35" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="4">
+        <f>AVERAGE(C2:C8,C14:C19,C25:C29)</f>
+        <v>18.2222222222222</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
-  <ignoredErrors>
-    <ignoredError sqref="C36 C9" formulaRange="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2135,13 +2152,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2152,74 +2169,74 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <f>AVERAGE(C2:C3)</f>
+        <v>13</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B9" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
+      <c r="C9" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="2">
         <v>3</v>
       </c>
-      <c r="C5" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="1">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1">
-        <f>AVERAGE(C2:C6)</f>
-        <v>18.4</v>
-      </c>
-      <c r="D9" s="2"/>
+      <c r="C11" s="2">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B12" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C12" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2227,10 +2244,10 @@
         <v>67</v>
       </c>
       <c r="B13" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C13" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2238,10 +2255,10 @@
         <v>68</v>
       </c>
       <c r="B14" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C14" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2262,8 +2279,8 @@
         <v>17</v>
       </c>
       <c r="C17" s="2">
-        <f>AVERAGE(C12:C14)</f>
-        <v>18.3333333333333</v>
+        <f>AVERAGE(C9:C14)</f>
+        <v>16.5</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2271,7 +2288,7 @@
         <v>69</v>
       </c>
       <c r="B20" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" s="3">
         <v>17</v>
@@ -2285,41 +2302,63 @@
         <v>4</v>
       </c>
       <c r="C21" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="A22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="3">
+        <v>5</v>
+      </c>
+      <c r="C22" s="3">
+        <v>15</v>
+      </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="A23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="3">
+        <v>7</v>
+      </c>
+      <c r="C23" s="3">
+        <v>14</v>
+      </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="3">
-        <f>AVERAGE(C20:C21)</f>
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="4" t="s">
+      <c r="C26" s="3">
+        <f>AVERAGE(C20:C23)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="4">
-        <f>AVERAGE(C2:C6,C12:C14,C20:C21)</f>
-        <v>17.6</v>
+      <c r="B29" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="4">
+        <f>AVERAGE(C2:C3,C9:C14,C20:C23)</f>
+        <v>15.75</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/friends/qie/zz_qe_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/qie/zz_qe_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12585" windowHeight="10125" firstSheet="1"/>
+    <workbookView windowWidth="10800" windowHeight="10875" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="炼狱" sheetId="8" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="75">
   <si>
     <t>名称</t>
   </si>
@@ -41,15 +41,12 @@
     <t>卡等</t>
   </si>
   <si>
+    <t>落雷击</t>
+  </si>
+  <si>
     <t>冥河守卫</t>
   </si>
   <si>
-    <t>落雷击</t>
-  </si>
-  <si>
-    <t>猩红勇士</t>
-  </si>
-  <si>
     <t>烈焰风暴</t>
   </si>
   <si>
@@ -89,6 +86,9 @@
     <t>痛苦之心</t>
   </si>
   <si>
+    <t>血影</t>
+  </si>
+  <si>
     <t>怨魂饕餮兽</t>
   </si>
   <si>
@@ -113,9 +113,6 @@
     <t>田园守望者</t>
   </si>
   <si>
-    <t>增援战线</t>
-  </si>
-  <si>
     <t>传记·钢铁守卫</t>
   </si>
   <si>
@@ -170,12 +167,12 @@
     <t>狡诈学徒</t>
   </si>
   <si>
+    <t>黑夜突袭</t>
+  </si>
+  <si>
     <t>黑金勒索者</t>
   </si>
   <si>
-    <t>黑夜突袭</t>
-  </si>
-  <si>
     <t>酗酒醉汉</t>
   </si>
   <si>
@@ -221,10 +218,16 @@
     <t>沉重否定</t>
   </si>
   <si>
+    <t>全数否定</t>
+  </si>
+  <si>
+    <t>克隆术</t>
+  </si>
+  <si>
     <t>破魔系教授</t>
   </si>
   <si>
-    <t>克隆术</t>
+    <t>咒术系学士</t>
   </si>
   <si>
     <t>学仆-脉冲型</t>
@@ -1217,8 +1220,8 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1247,7 +1250,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1255,7 +1258,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
         <v>20</v>
@@ -1266,45 +1269,45 @@
         <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>20</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C7" s="1">
+        <f>AVERAGE(C2:C4)</f>
+        <v>21.3333333333333</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="1">
-        <f>AVERAGE(C2:C5)</f>
-        <v>20</v>
-      </c>
-      <c r="D8" s="2"/>
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
@@ -1314,7 +1317,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1322,10 +1325,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1336,7 +1339,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1344,10 +1347,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1355,10 +1358,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1369,7 +1372,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1377,22 +1380,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2">
-        <v>6</v>
-      </c>
-      <c r="C18" s="2">
-        <v>19</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2"/>
@@ -1400,20 +1397,26 @@
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="A20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="2">
+        <f>AVERAGE(C10:C17)</f>
+        <v>20.375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="2">
-        <f>AVERAGE(C11:C18)</f>
-        <v>19</v>
+      <c r="B23" s="3">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1421,10 +1424,10 @@
         <v>18</v>
       </c>
       <c r="B24" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1461,14 +1464,14 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C29" s="3">
-        <f>AVERAGE(C24:C26)</f>
-        <v>16</v>
+        <f>AVERAGE(C23:C26)</f>
+        <v>16.5</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1479,8 +1482,8 @@
         <v>23</v>
       </c>
       <c r="C32" s="4">
-        <f>AVERAGE(C2:C5,C11:C18,C24:C26)</f>
-        <v>18.6666666666667</v>
+        <f>AVERAGE(C2:C4,C10:C17,C23:C26)</f>
+        <v>19.5333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -1492,10 +1495,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1550,38 +1553,38 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1">
-        <v>20</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1">
-        <f>AVERAGE(C2:C5)</f>
+      <c r="C7" s="1">
+        <f>AVERAGE(C2:C4)</f>
         <v>20</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
@@ -1591,7 +1594,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1599,10 +1602,10 @@
         <v>29</v>
       </c>
       <c r="B12" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1610,7 +1613,7 @@
         <v>30</v>
       </c>
       <c r="B13" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" s="2">
         <v>20</v>
@@ -1632,7 +1635,7 @@
         <v>32</v>
       </c>
       <c r="B15" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" s="2">
         <v>20</v>
@@ -1646,7 +1649,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1654,22 +1657,16 @@
         <v>34</v>
       </c>
       <c r="B17" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C17" s="2">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="2">
-        <v>5</v>
-      </c>
-      <c r="C18" s="2">
-        <v>19</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2"/>
@@ -1677,20 +1674,26 @@
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="A20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="2">
+        <f>AVERAGE(C10:C17)</f>
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="3">
+        <v>3</v>
+      </c>
+      <c r="C23" s="3">
         <v>17</v>
-      </c>
-      <c r="C21" s="2">
-        <f>AVERAGE(C11:C18)</f>
-        <v>19.5</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1698,10 +1701,10 @@
         <v>36</v>
       </c>
       <c r="B24" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C24" s="3">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1712,7 +1715,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="3">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1720,10 +1723,10 @@
         <v>38</v>
       </c>
       <c r="B26" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C26" s="3">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1731,10 +1734,10 @@
         <v>39</v>
       </c>
       <c r="B27" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C27" s="3">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1742,10 +1745,10 @@
         <v>40</v>
       </c>
       <c r="B28" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C28" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1753,22 +1756,16 @@
         <v>41</v>
       </c>
       <c r="B29" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="3">
-        <v>8</v>
-      </c>
-      <c r="C30" s="3">
-        <v>15</v>
-      </c>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="3"/>
@@ -1776,39 +1773,34 @@
       <c r="C31" s="3"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="3" t="s">
+      <c r="A32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="3">
-        <f>AVERAGE(C24:C30)</f>
+      <c r="C32" s="3">
+        <f>AVERAGE(C23:C29)</f>
         <v>16.5714285714286</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="4" t="s">
+    <row r="35" spans="1:3">
+      <c r="A35" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="4">
-        <f>AVERAGE(C2:C5,C11:C18,C24:C30)</f>
-        <v>18.5263157894737</v>
+      <c r="B35" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="4">
+        <f>AVERAGE(C2:C4,C10:C17,C23:C29)</f>
+        <v>18.4444444444444</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C8 C36" formulaRange="1"/>
+    <ignoredError sqref="C35 C7" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1819,7 +1811,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1842,7 +1834,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -1853,7 +1845,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -1864,29 +1856,29 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
@@ -1897,18 +1889,18 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
@@ -1929,53 +1921,53 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="C11" s="1">
         <f>AVERAGE(C2:C8)</f>
-        <v>18.4285714285714</v>
+        <v>19.2857142857143</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
       </c>
       <c r="C14" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
       </c>
       <c r="C15" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
       </c>
       <c r="C16" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
@@ -1986,7 +1978,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
@@ -1997,7 +1989,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19" s="2">
         <v>5</v>
@@ -2018,19 +2010,19 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="2">
         <f>AVERAGE(C14:C19)</f>
-        <v>18.6666666666667</v>
+        <v>19.6666666666667</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B25" s="3">
         <v>2</v>
@@ -2041,18 +2033,18 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B26" s="3">
         <v>3</v>
       </c>
       <c r="C26" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B27" s="3">
         <v>4</v>
@@ -2063,18 +2055,18 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B28" s="3">
         <v>5</v>
       </c>
       <c r="C28" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B29" s="3">
         <v>7</v>
@@ -2095,14 +2087,14 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C32" s="3">
         <f>AVERAGE(C25:C29)</f>
-        <v>17.4</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2110,11 +2102,11 @@
         <v>22</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C35" s="4">
         <f>AVERAGE(C2:C8,C14:C19,C25:C29)</f>
-        <v>18.2222222222222</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2126,10 +2118,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2152,7 +2144,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -2163,7 +2155,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -2173,192 +2165,225 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
+      <c r="A5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1">
-        <f>AVERAGE(C2:C3)</f>
-        <v>13</v>
-      </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="2">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="2">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2">
-        <v>14</v>
-      </c>
+      <c r="C8" s="1">
+        <f>AVERAGE(C2:C5)</f>
+        <v>12.75</v>
+      </c>
+      <c r="D8" s="2"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B11" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="2">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B12" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C12" s="2">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C13" s="2">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="2">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="2">
-        <v>7</v>
-      </c>
-      <c r="C14" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="B16" s="2">
+        <v>6</v>
+      </c>
+      <c r="C16" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="2">
         <v>7</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C17" s="2">
-        <f>AVERAGE(C9:C14)</f>
-        <v>16.5</v>
-      </c>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="3">
-        <v>3</v>
-      </c>
-      <c r="C20" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="3">
-        <v>4</v>
-      </c>
-      <c r="C21" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" s="3">
-        <v>5</v>
-      </c>
-      <c r="C22" s="3">
-        <v>15</v>
+      <c r="A20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="2">
+        <f>AVERAGE(C11:C17)</f>
+        <v>13.1428571428571</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="3">
+        <v>3</v>
+      </c>
+      <c r="C23" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="3">
+        <v>4</v>
+      </c>
+      <c r="C24" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="3">
-        <v>7</v>
-      </c>
-      <c r="C23" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+      <c r="B25" s="3">
+        <v>5</v>
+      </c>
+      <c r="C25" s="3">
+        <v>15</v>
+      </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="3">
         <v>7</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="C26" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="3">
-        <f>AVERAGE(C20:C23)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="4" t="s">
+      <c r="C29" s="3">
+        <f>AVERAGE(C23:C26)</f>
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="4">
-        <f>AVERAGE(C2:C3,C9:C14,C20:C23)</f>
-        <v>15.75</v>
+      <c r="B32" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="4">
+        <f>AVERAGE(C2:C5,C11:C17,C23:C26)</f>
+        <v>13.6666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/friends/qie/zz_qe_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/qie/zz_qe_level.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10800" windowHeight="10875" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="11520" windowHeight="11130" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="炼狱" sheetId="8" r:id="rId1"/>
-    <sheet name="帝国" sheetId="5" r:id="rId2"/>
-    <sheet name="港口" sheetId="6" r:id="rId3"/>
+    <sheet name="港口" sheetId="6" r:id="rId2"/>
+    <sheet name="帝国" sheetId="5" r:id="rId3"/>
     <sheet name="隐秘" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="74">
   <si>
     <t>名称</t>
   </si>
@@ -41,12 +41,12 @@
     <t>卡等</t>
   </si>
   <si>
+    <t>冥河守卫</t>
+  </si>
+  <si>
     <t>落雷击</t>
   </si>
   <si>
-    <t>冥河守卫</t>
-  </si>
-  <si>
     <t>烈焰风暴</t>
   </si>
   <si>
@@ -104,15 +104,69 @@
     <t>炼狱卡等：</t>
   </si>
   <si>
-    <t>圣殿斥候</t>
+    <t>心灵黑洞</t>
+  </si>
+  <si>
+    <t>狡诈学徒</t>
+  </si>
+  <si>
+    <t>黑金勒索者</t>
+  </si>
+  <si>
+    <t>黑夜突袭</t>
+  </si>
+  <si>
+    <t>酗酒醉汉</t>
+  </si>
+  <si>
+    <t>不法交易</t>
+  </si>
+  <si>
+    <t>海燕精卫</t>
+  </si>
+  <si>
+    <t>红海猎魔人</t>
+  </si>
+  <si>
+    <t>黑水伏击</t>
+  </si>
+  <si>
+    <t>黑金诈术师</t>
+  </si>
+  <si>
+    <t>星辰陨落</t>
+  </si>
+  <si>
+    <t>花剑绅士·翔</t>
+  </si>
+  <si>
+    <t>海燕·鲍莉</t>
+  </si>
+  <si>
+    <t>赤影·艾希尔</t>
+  </si>
+  <si>
+    <t>钢之咆哮·布瑞恩</t>
+  </si>
+  <si>
+    <t>黑金三代目·梅森</t>
+  </si>
+  <si>
+    <t>港口卡等：</t>
   </si>
   <si>
     <t>圣殿弩手</t>
   </si>
   <si>
+    <t>增援战线</t>
+  </si>
+  <si>
     <t>田园守望者</t>
   </si>
   <si>
+    <t>光明惩戒</t>
+  </si>
+  <si>
     <t>传记·钢铁守卫</t>
   </si>
   <si>
@@ -134,9 +188,6 @@
     <t>阳炎坠落</t>
   </si>
   <si>
-    <t>禁卫百夫长</t>
-  </si>
-  <si>
     <t>曙光·安娜贝尔</t>
   </si>
   <si>
@@ -159,60 +210,6 @@
   </si>
   <si>
     <t>帝国卡等：</t>
-  </si>
-  <si>
-    <t>心灵黑洞</t>
-  </si>
-  <si>
-    <t>狡诈学徒</t>
-  </si>
-  <si>
-    <t>黑夜突袭</t>
-  </si>
-  <si>
-    <t>黑金勒索者</t>
-  </si>
-  <si>
-    <t>酗酒醉汉</t>
-  </si>
-  <si>
-    <t>不法交易</t>
-  </si>
-  <si>
-    <t>海燕精卫</t>
-  </si>
-  <si>
-    <t>红海猎魔人</t>
-  </si>
-  <si>
-    <t>黑水伏击</t>
-  </si>
-  <si>
-    <t>寒夜灯灵</t>
-  </si>
-  <si>
-    <t>黑金诈术师</t>
-  </si>
-  <si>
-    <t>星辰陨落</t>
-  </si>
-  <si>
-    <t>花剑绅士·翔</t>
-  </si>
-  <si>
-    <t>海燕·鲍莉</t>
-  </si>
-  <si>
-    <t>赤影·艾希尔</t>
-  </si>
-  <si>
-    <t>钢之咆哮·布瑞恩</t>
-  </si>
-  <si>
-    <t>黑金三代目·梅森</t>
-  </si>
-  <si>
-    <t>港口卡等：</t>
   </si>
   <si>
     <t>沉重否定</t>
@@ -1220,8 +1217,8 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1258,10 +1255,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1294,7 +1291,7 @@
       </c>
       <c r="C7" s="1">
         <f>AVERAGE(C2:C4)</f>
-        <v>21.3333333333333</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -1449,7 +1446,7 @@
         <v>6</v>
       </c>
       <c r="C26" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1471,7 +1468,7 @@
       </c>
       <c r="C29" s="3">
         <f>AVERAGE(C23:C26)</f>
-        <v>16.5</v>
+        <v>16.75</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1483,7 +1480,7 @@
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C4,C10:C17,C23:C26)</f>
-        <v>19.5333333333333</v>
+        <v>19.7333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -1495,10 +1492,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1527,146 +1524,152 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
+      <c r="C7" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1">
-        <f>AVERAGE(C2:C4)</f>
-        <v>20</v>
-      </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="2">
-        <v>3</v>
-      </c>
-      <c r="C13" s="2">
-        <v>20</v>
-      </c>
+      <c r="C11" s="1">
+        <f>AVERAGE(C2:C8)</f>
+        <v>19.5714285714286</v>
+      </c>
+      <c r="D11" s="2"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C15" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" s="2">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="2">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B18" s="2">
         <v>5</v>
       </c>
-      <c r="C17" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="C18" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2"/>
@@ -1674,34 +1677,28 @@
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="2">
-        <f>AVERAGE(C10:C17)</f>
-        <v>19.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="3">
-        <v>3</v>
-      </c>
-      <c r="C23" s="3">
-        <v>17</v>
+      <c r="C21" s="2">
+        <f>AVERAGE(C14:C18)</f>
+        <v>20.8</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C24" s="3">
         <v>19</v>
@@ -1709,58 +1706,52 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" s="3">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26" s="3">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" s="3">
         <v>7</v>
       </c>
       <c r="C28" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="3">
-        <v>8</v>
-      </c>
-      <c r="C29" s="3">
-        <v>15</v>
-      </c>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3"/>
@@ -1768,40 +1759,32 @@
       <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="3" t="s">
+      <c r="A31" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="3">
-        <f>AVERAGE(C23:C29)</f>
-        <v>16.5714285714286</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="4">
-        <f>AVERAGE(C2:C4,C10:C17,C23:C29)</f>
-        <v>18.4444444444444</v>
+      <c r="C31" s="3">
+        <f>AVERAGE(C24:C28)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="4">
+        <f>AVERAGE(C2:C8,C14:C18,C24:C28)</f>
+        <v>19.4705882352941</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
-  <ignoredErrors>
-    <ignoredError sqref="C35 C7" formulaRange="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -1811,7 +1794,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1834,110 +1817,110 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <f>AVERAGE(C2:C5)</f>
+        <v>20.5</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="1">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1">
-        <f>AVERAGE(C2:C8)</f>
-        <v>19.2857142857143</v>
-      </c>
-      <c r="D11" s="2"/>
+      <c r="C13" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" s="2">
         <v>22</v>
@@ -1945,10 +1928,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" s="2">
         <v>22</v>
@@ -1956,123 +1939,123 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="2">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="2">
+        <f>AVERAGE(C11:C17)</f>
+        <v>20.4285714285714</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B23" s="3">
         <v>3</v>
       </c>
-      <c r="C17" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
+      <c r="C23" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B24" s="3">
         <v>4</v>
       </c>
-      <c r="C18" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="2">
-        <v>5</v>
-      </c>
-      <c r="C19" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="2">
-        <f>AVERAGE(C14:C19)</f>
-        <v>19.6666666666667</v>
+      <c r="C24" s="3">
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C25" s="3">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B26" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C26" s="3">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C27" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B28" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C28" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B29" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2093,8 +2076,8 @@
         <v>21</v>
       </c>
       <c r="C32" s="3">
-        <f>AVERAGE(C25:C29)</f>
-        <v>17.8</v>
+        <f>AVERAGE(C23:C29)</f>
+        <v>17.1428571428571</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2102,16 +2085,19 @@
         <v>22</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C35" s="4">
-        <f>AVERAGE(C2:C8,C14:C19,C25:C29)</f>
-        <v>19</v>
+        <f>AVERAGE(C2:C5,C11:C17,C23:C29)</f>
+        <v>19.1666666666667</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <ignoredErrors>
+    <ignoredError sqref="C35 C8" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -2121,7 +2107,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2144,7 +2130,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -2155,7 +2141,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -2166,7 +2152,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -2177,7 +2163,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -2211,7 +2197,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" s="2">
         <v>2</v>
@@ -2222,7 +2208,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
@@ -2233,7 +2219,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B13" s="2">
         <v>2</v>
@@ -2244,7 +2230,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B14" s="2">
         <v>3</v>
@@ -2255,7 +2241,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B15" s="2">
         <v>5</v>
@@ -2266,7 +2252,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" s="2">
         <v>6</v>
@@ -2277,7 +2263,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B17" s="2">
         <v>7</v>
@@ -2310,29 +2296,29 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B23" s="3">
         <v>3</v>
       </c>
       <c r="C23" s="3">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B24" s="3">
         <v>4</v>
       </c>
       <c r="C24" s="3">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B25" s="3">
         <v>5</v>
@@ -2343,7 +2329,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B26" s="3">
         <v>7</v>
@@ -2371,7 +2357,7 @@
       </c>
       <c r="C29" s="3">
         <f>AVERAGE(C23:C26)</f>
-        <v>15.5</v>
+        <v>12.75</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2379,11 +2365,11 @@
         <v>22</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C5,C11:C17,C23:C26)</f>
-        <v>13.6666666666667</v>
+        <v>12.9333333333333</v>
       </c>
     </row>
   </sheetData>
